--- a/Materials.xlsx
+++ b/Materials.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Sectors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{852EF6E4-86D1-4131-89A5-9E371798D500}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29E05A6D-EB5C-4933-9E6D-32412ABA2C08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="4680" windowWidth="38175" windowHeight="15240" activeTab="2" xr2:uid="{A6ACE955-0C4C-4110-BBCD-1B981A886B38}"/>
+    <workbookView xWindow="225" yWindow="1950" windowWidth="38175" windowHeight="15240" activeTab="1" xr2:uid="{A6ACE955-0C4C-4110-BBCD-1B981A886B38}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -2602,7 +2602,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E7B3C00-FF04-4982-B10E-CD93454556D9}">
   <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:M3"/>
     </sheetView>
   </sheetViews>
@@ -3367,9 +3367,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4261B062-D8A3-4E26-B04D-F79BE8375020}">
   <dimension ref="A1:L295"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Materials.xlsx
+++ b/Materials.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Sectors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29E05A6D-EB5C-4933-9E6D-32412ABA2C08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E067F687-C601-405B-B989-3F5BA8C5352D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="1950" windowWidth="38175" windowHeight="15240" activeTab="1" xr2:uid="{A6ACE955-0C4C-4110-BBCD-1B981A886B38}"/>
+    <workbookView xWindow="225" yWindow="1950" windowWidth="38175" windowHeight="15240" activeTab="2" xr2:uid="{A6ACE955-0C4C-4110-BBCD-1B981A886B38}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -2602,7 +2602,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E7B3C00-FF04-4982-B10E-CD93454556D9}">
   <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:M3"/>
     </sheetView>
   </sheetViews>
@@ -3367,7 +3367,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4261B062-D8A3-4E26-B04D-F79BE8375020}">
   <dimension ref="A1:L295"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
     </sheetView>

--- a/Materials.xlsx
+++ b/Materials.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Sectors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E067F687-C601-405B-B989-3F5BA8C5352D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09E55629-69F4-4663-992F-45437DB3862A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="1950" windowWidth="38175" windowHeight="15240" activeTab="2" xr2:uid="{A6ACE955-0C4C-4110-BBCD-1B981A886B38}"/>
+    <workbookView xWindow="225" yWindow="4635" windowWidth="38175" windowHeight="15240" activeTab="2" xr2:uid="{A6ACE955-0C4C-4110-BBCD-1B981A886B38}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
   <externalReferences>
     <externalReference r:id="rId5"/>
     <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="668">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="668">
   <si>
     <t>Materials</t>
   </si>
@@ -132,9 +133,6 @@
     <t>CNH</t>
   </si>
   <si>
-    <t>Q324</t>
-  </si>
-  <si>
     <t xml:space="preserve">Wilmar International </t>
   </si>
   <si>
@@ -2047,6 +2045,9 @@
   </si>
   <si>
     <t>GPLDF</t>
+  </si>
+  <si>
+    <t>Q125</t>
   </si>
 </sst>
 </file>
@@ -2146,7 +2147,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2167,6 +2168,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2238,22 +2242,61 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="H2">
-            <v>13.08</v>
+            <v>13.78</v>
           </cell>
         </row>
         <row r="4">
           <cell r="H4">
-            <v>16336.697639999999</v>
+            <v>17217.167902739999</v>
           </cell>
         </row>
         <row r="5">
           <cell r="H5">
-            <v>2450</v>
+            <v>2398</v>
           </cell>
         </row>
         <row r="6">
           <cell r="H6">
-            <v>27300</v>
+            <v>26070</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="J2">
+            <v>102.1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="J4">
+            <v>81290.601320499991</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="J5">
+            <v>4334.5</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="J6">
+            <v>7247</v>
           </cell>
         </row>
       </sheetData>
@@ -2603,7 +2646,7 @@
   <dimension ref="A1:L49"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:M3"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2614,7 +2657,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -2698,7 +2741,7 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
@@ -2857,22 +2900,22 @@
       </c>
       <c r="E15" s="8">
         <f>+[2]Main!$H$2</f>
-        <v>13.08</v>
+        <v>13.78</v>
       </c>
       <c r="F15" s="9">
         <f>+[2]Main!$H$4</f>
-        <v>16336.697639999999</v>
+        <v>17217.167902739999</v>
       </c>
       <c r="G15" s="9">
         <f>+[2]Main!$H$6-[2]Main!$H$5</f>
-        <v>24850</v>
+        <v>23672</v>
       </c>
       <c r="H15" s="9">
         <f>+F15+G15</f>
-        <v>41186.697639999999</v>
+        <v>40889.167902739995</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>29</v>
+        <v>667</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -2881,7 +2924,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="9"/>
@@ -2895,7 +2938,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="9"/>
@@ -2909,7 +2952,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="9"/>
@@ -2923,7 +2966,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="9"/>
@@ -2937,7 +2980,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="9"/>
@@ -2951,7 +2994,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="9"/>
@@ -2965,7 +3008,7 @@
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E22" s="8"/>
       <c r="F22" s="9"/>
@@ -2979,7 +3022,7 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E23" s="8"/>
       <c r="F23" s="9"/>
@@ -2993,7 +3036,7 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="9"/>
@@ -3007,7 +3050,7 @@
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E25" s="8"/>
       <c r="F25" s="9"/>
@@ -3021,7 +3064,7 @@
         <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E26" s="8"/>
       <c r="F26" s="9"/>
@@ -3035,7 +3078,7 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="9"/>
@@ -3049,7 +3092,7 @@
         <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E28" s="8"/>
       <c r="F28" s="9"/>
@@ -3063,7 +3106,7 @@
         <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E29" s="8"/>
       <c r="F29" s="9"/>
@@ -3077,7 +3120,7 @@
         <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E30" s="8"/>
       <c r="F30" s="9"/>
@@ -3091,7 +3134,7 @@
         <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E31" s="8"/>
       <c r="F31" s="9"/>
@@ -3105,7 +3148,7 @@
         <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E32" s="8"/>
       <c r="F32" s="9"/>
@@ -3119,7 +3162,7 @@
         <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E33" s="8"/>
       <c r="F33" s="9"/>
@@ -3133,7 +3176,7 @@
         <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E34" s="8"/>
       <c r="F34" s="9"/>
@@ -3147,7 +3190,7 @@
         <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E35" s="8"/>
       <c r="F35" s="9"/>
@@ -3161,7 +3204,7 @@
         <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E36" s="8"/>
       <c r="F36" s="9"/>
@@ -3175,7 +3218,7 @@
         <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E37" s="8"/>
       <c r="F37" s="9"/>
@@ -3189,7 +3232,7 @@
         <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E38" s="8"/>
       <c r="F38" s="9"/>
@@ -3203,7 +3246,7 @@
         <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E39" s="8"/>
       <c r="F39" s="9"/>
@@ -3217,7 +3260,7 @@
         <v>37</v>
       </c>
       <c r="B40" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E40" s="8"/>
       <c r="F40" s="9"/>
@@ -3231,7 +3274,7 @@
         <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E41" s="8"/>
       <c r="F41" s="9"/>
@@ -3245,7 +3288,7 @@
         <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E42" s="8"/>
       <c r="F42" s="9"/>
@@ -3259,7 +3302,7 @@
         <v>40</v>
       </c>
       <c r="B43" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E43" s="8"/>
       <c r="F43" s="9"/>
@@ -3273,7 +3316,7 @@
         <v>41</v>
       </c>
       <c r="B44" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E44" s="8"/>
       <c r="F44" s="9"/>
@@ -3287,7 +3330,7 @@
         <v>42</v>
       </c>
       <c r="B45" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E45" s="8"/>
       <c r="F45" s="9"/>
@@ -3301,7 +3344,7 @@
         <v>43</v>
       </c>
       <c r="B46" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E46" s="8"/>
       <c r="F46" s="9"/>
@@ -3315,7 +3358,7 @@
         <v>44</v>
       </c>
       <c r="B47" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E47" s="8"/>
       <c r="F47" s="9"/>
@@ -3329,7 +3372,7 @@
         <v>45</v>
       </c>
       <c r="B48" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E48" s="8"/>
       <c r="F48" s="9"/>
@@ -3343,7 +3386,7 @@
         <v>46</v>
       </c>
       <c r="B49" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E49" s="8"/>
       <c r="F49" s="9"/>
@@ -3365,16 +3408,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4261B062-D8A3-4E26-B04D-F79BE8375020}">
-  <dimension ref="A1:L295"/>
+  <dimension ref="A1:L308"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="1" max="1" width="4.28515625" customWidth="1"/>
     <col min="2" max="2" width="20.85546875" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
@@ -3382,7 +3425,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -3425,3202 +3468,4431 @@
       <c r="L3" s="5"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>1</v>
+      </c>
       <c r="B4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" t="s">
         <v>67</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>68</v>
       </c>
-      <c r="D4" t="s">
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <f>1+A4</f>
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>70</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>71</v>
       </c>
-      <c r="D5" t="s">
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <f t="shared" ref="A6:A69" si="0">1+A5</f>
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>73</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>74</v>
       </c>
-      <c r="D6" t="s">
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>76</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>77</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7">
+        <f>+[3]Main!$J$2</f>
+        <v>102.1</v>
+      </c>
+      <c r="F7">
+        <f>+[3]Main!$J$4</f>
+        <v>81290.601320499991</v>
+      </c>
+      <c r="G7">
+        <f>+[3]Main!$J$6-[3]Main!$J$5</f>
+        <v>2912.5</v>
+      </c>
+      <c r="H7">
+        <f>+F7+G7</f>
+        <v>84203.101320499991</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>79</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
         <v>80</v>
       </c>
-      <c r="D8" t="s">
+      <c r="C9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>99</v>
+      </c>
+      <c r="C16" t="s">
+        <v>100</v>
+      </c>
+      <c r="D16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>102</v>
+      </c>
+      <c r="C17" t="s">
+        <v>103</v>
+      </c>
+      <c r="D17" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>104</v>
+      </c>
+      <c r="C18" t="s">
+        <v>105</v>
+      </c>
+      <c r="D18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>106</v>
+      </c>
+      <c r="C19" t="s">
+        <v>107</v>
+      </c>
+      <c r="D19" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>108</v>
+      </c>
+      <c r="C20" t="s">
+        <v>109</v>
+      </c>
+      <c r="D20" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>110</v>
+      </c>
+      <c r="C21" t="s">
+        <v>111</v>
+      </c>
+      <c r="D21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>112</v>
+      </c>
+      <c r="C22" t="s">
+        <v>113</v>
+      </c>
+      <c r="D22" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>115</v>
+      </c>
+      <c r="C23" t="s">
+        <v>116</v>
+      </c>
+      <c r="D23" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>117</v>
+      </c>
+      <c r="C24" t="s">
+        <v>118</v>
+      </c>
+      <c r="D24" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>120</v>
+      </c>
+      <c r="C25" t="s">
+        <v>121</v>
+      </c>
+      <c r="D25" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="6">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>123</v>
+      </c>
+      <c r="C26" t="s">
+        <v>124</v>
+      </c>
+      <c r="D26" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="6">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>125</v>
+      </c>
+      <c r="C27" t="s">
+        <v>126</v>
+      </c>
+      <c r="D27" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="6">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>127</v>
+      </c>
+      <c r="C28" t="s">
+        <v>128</v>
+      </c>
+      <c r="D28" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="6">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B29" t="s">
+        <v>129</v>
+      </c>
+      <c r="C29" t="s">
+        <v>130</v>
+      </c>
+      <c r="D29" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="6">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B30" t="s">
+        <v>131</v>
+      </c>
+      <c r="C30" t="s">
+        <v>132</v>
+      </c>
+      <c r="D30" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="6">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B31" t="s">
+        <v>133</v>
+      </c>
+      <c r="C31" t="s">
+        <v>134</v>
+      </c>
+      <c r="D31" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="6">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B32" t="s">
+        <v>135</v>
+      </c>
+      <c r="C32" t="s">
+        <v>136</v>
+      </c>
+      <c r="D32" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="6">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B33" t="s">
+        <v>137</v>
+      </c>
+      <c r="C33" t="s">
+        <v>138</v>
+      </c>
+      <c r="D33" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="6">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B34" t="s">
+        <v>139</v>
+      </c>
+      <c r="C34" t="s">
+        <v>140</v>
+      </c>
+      <c r="D34" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="6">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B35" t="s">
+        <v>141</v>
+      </c>
+      <c r="C35" t="s">
+        <v>142</v>
+      </c>
+      <c r="D35" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="6">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B36" t="s">
+        <v>143</v>
+      </c>
+      <c r="C36" t="s">
+        <v>144</v>
+      </c>
+      <c r="D36" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="6">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B37" t="s">
+        <v>145</v>
+      </c>
+      <c r="C37" t="s">
+        <v>146</v>
+      </c>
+      <c r="D37" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="6">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B38" t="s">
+        <v>147</v>
+      </c>
+      <c r="C38" t="s">
+        <v>148</v>
+      </c>
+      <c r="D38" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="6">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B39" t="s">
+        <v>149</v>
+      </c>
+      <c r="C39" t="s">
+        <v>150</v>
+      </c>
+      <c r="D39" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="6">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B40" t="s">
+        <v>151</v>
+      </c>
+      <c r="C40" t="s">
+        <v>152</v>
+      </c>
+      <c r="D40" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="6">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B41" t="s">
+        <v>153</v>
+      </c>
+      <c r="C41" t="s">
+        <v>154</v>
+      </c>
+      <c r="D41" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="6">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B42" t="s">
+        <v>155</v>
+      </c>
+      <c r="C42" t="s">
+        <v>156</v>
+      </c>
+      <c r="D42" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="6">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B43" t="s">
+        <v>158</v>
+      </c>
+      <c r="C43" t="s">
+        <v>159</v>
+      </c>
+      <c r="D43" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="6">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B44" t="s">
+        <v>160</v>
+      </c>
+      <c r="C44" t="s">
+        <v>161</v>
+      </c>
+      <c r="D44" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="6">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B45" t="s">
+        <v>162</v>
+      </c>
+      <c r="C45" t="s">
+        <v>163</v>
+      </c>
+      <c r="D45" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="6">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B46" t="s">
+        <v>164</v>
+      </c>
+      <c r="C46" t="s">
+        <v>165</v>
+      </c>
+      <c r="D46" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="6">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="B47" t="s">
+        <v>166</v>
+      </c>
+      <c r="C47" t="s">
+        <v>167</v>
+      </c>
+      <c r="D47" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="6">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="B48" t="s">
+        <v>169</v>
+      </c>
+      <c r="C48" t="s">
+        <v>170</v>
+      </c>
+      <c r="D48" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="6">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="B49" t="s">
+        <v>171</v>
+      </c>
+      <c r="C49" t="s">
+        <v>172</v>
+      </c>
+      <c r="D49" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="6">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="B50" t="s">
+        <v>173</v>
+      </c>
+      <c r="C50" t="s">
+        <v>174</v>
+      </c>
+      <c r="D50" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="6">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="B51" t="s">
+        <v>176</v>
+      </c>
+      <c r="C51" t="s">
+        <v>177</v>
+      </c>
+      <c r="D51" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="6">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="B52" t="s">
+        <v>178</v>
+      </c>
+      <c r="C52" t="s">
+        <v>179</v>
+      </c>
+      <c r="D52" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="6">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="B53" t="s">
+        <v>180</v>
+      </c>
+      <c r="C53" t="s">
+        <v>181</v>
+      </c>
+      <c r="D53" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="6">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="B54" t="s">
+        <v>182</v>
+      </c>
+      <c r="C54" t="s">
+        <v>183</v>
+      </c>
+      <c r="D54" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="6">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="B55" t="s">
+        <v>184</v>
+      </c>
+      <c r="C55" t="s">
+        <v>185</v>
+      </c>
+      <c r="D55" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="6">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="B56" t="s">
+        <v>187</v>
+      </c>
+      <c r="C56" t="s">
+        <v>188</v>
+      </c>
+      <c r="D56" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="6">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="B57" t="s">
+        <v>189</v>
+      </c>
+      <c r="C57" t="s">
+        <v>190</v>
+      </c>
+      <c r="D57" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="6">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="B58" t="s">
+        <v>191</v>
+      </c>
+      <c r="C58" t="s">
+        <v>192</v>
+      </c>
+      <c r="D58" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="6">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="B59" t="s">
+        <v>194</v>
+      </c>
+      <c r="C59" t="s">
+        <v>195</v>
+      </c>
+      <c r="D59" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="6">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="B60" t="s">
+        <v>196</v>
+      </c>
+      <c r="C60" t="s">
+        <v>197</v>
+      </c>
+      <c r="D60" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="6">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="B61" t="s">
+        <v>198</v>
+      </c>
+      <c r="C61" t="s">
+        <v>199</v>
+      </c>
+      <c r="D61" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="6">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="B62" t="s">
+        <v>200</v>
+      </c>
+      <c r="C62" t="s">
+        <v>201</v>
+      </c>
+      <c r="D62" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="6">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="B63" t="s">
+        <v>202</v>
+      </c>
+      <c r="C63" t="s">
+        <v>203</v>
+      </c>
+      <c r="D63" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="6">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="B64" t="s">
+        <v>204</v>
+      </c>
+      <c r="C64" t="s">
+        <v>205</v>
+      </c>
+      <c r="D64" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="6">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="B65" t="s">
+        <v>206</v>
+      </c>
+      <c r="C65" t="s">
+        <v>207</v>
+      </c>
+      <c r="D65" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="6">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="B66" t="s">
+        <v>208</v>
+      </c>
+      <c r="C66" t="s">
+        <v>209</v>
+      </c>
+      <c r="D66" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="6">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="B67" t="s">
+        <v>210</v>
+      </c>
+      <c r="C67" t="s">
+        <v>211</v>
+      </c>
+      <c r="D67" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="6">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="B68" t="s">
+        <v>212</v>
+      </c>
+      <c r="C68" t="s">
+        <v>213</v>
+      </c>
+      <c r="D68" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="6">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="B69" t="s">
+        <v>214</v>
+      </c>
+      <c r="C69" t="s">
+        <v>215</v>
+      </c>
+      <c r="D69" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="6">
+        <f t="shared" ref="A70:A133" si="1">1+A69</f>
+        <v>67</v>
+      </c>
+      <c r="B70" t="s">
+        <v>216</v>
+      </c>
+      <c r="C70" t="s">
+        <v>217</v>
+      </c>
+      <c r="D70" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="6">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="B71" t="s">
+        <v>219</v>
+      </c>
+      <c r="C71" t="s">
+        <v>220</v>
+      </c>
+      <c r="D71" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="6">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="B72" t="s">
+        <v>221</v>
+      </c>
+      <c r="C72" t="s">
+        <v>222</v>
+      </c>
+      <c r="D72" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="6">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="B73" t="s">
+        <v>223</v>
+      </c>
+      <c r="C73" t="s">
+        <v>224</v>
+      </c>
+      <c r="D73" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="6">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+      <c r="B74" t="s">
+        <v>225</v>
+      </c>
+      <c r="C74" t="s">
+        <v>226</v>
+      </c>
+      <c r="D74" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="6">
+        <f t="shared" si="1"/>
         <v>72</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+      <c r="B75" t="s">
+        <v>227</v>
+      </c>
+      <c r="C75" t="s">
+        <v>228</v>
+      </c>
+      <c r="D75" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="6">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
+      <c r="B76" t="s">
+        <v>229</v>
+      </c>
+      <c r="C76" t="s">
+        <v>230</v>
+      </c>
+      <c r="D76" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="6">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="B77" t="s">
+        <v>231</v>
+      </c>
+      <c r="C77" t="s">
+        <v>232</v>
+      </c>
+      <c r="D77" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="6">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="B78" t="s">
+        <v>233</v>
+      </c>
+      <c r="C78" t="s">
+        <v>234</v>
+      </c>
+      <c r="D78" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="6">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="B79" t="s">
+        <v>235</v>
+      </c>
+      <c r="C79" t="s">
+        <v>236</v>
+      </c>
+      <c r="D79" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="6">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
+      <c r="B80" t="s">
+        <v>237</v>
+      </c>
+      <c r="C80" t="s">
+        <v>238</v>
+      </c>
+      <c r="D80" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="6">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="B81" t="s">
+        <v>239</v>
+      </c>
+      <c r="C81" t="s">
+        <v>240</v>
+      </c>
+      <c r="D81" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="6">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+      <c r="B82" t="s">
+        <v>241</v>
+      </c>
+      <c r="C82" t="s">
+        <v>242</v>
+      </c>
+      <c r="D82" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="6">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="B83" t="s">
+        <v>243</v>
+      </c>
+      <c r="C83" t="s">
+        <v>244</v>
+      </c>
+      <c r="D83" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="6">
+        <f t="shared" si="1"/>
         <v>81</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B84" t="s">
+        <v>245</v>
+      </c>
+      <c r="C84" t="s">
+        <v>246</v>
+      </c>
+      <c r="D84" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="6">
+        <f t="shared" si="1"/>
         <v>82</v>
       </c>
-      <c r="D9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+      <c r="B85" t="s">
+        <v>247</v>
+      </c>
+      <c r="C85" t="s">
+        <v>248</v>
+      </c>
+      <c r="D85" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="6">
+        <f t="shared" si="1"/>
         <v>83</v>
       </c>
-      <c r="C10" t="s">
+      <c r="B86" t="s">
+        <v>249</v>
+      </c>
+      <c r="C86" t="s">
+        <v>250</v>
+      </c>
+      <c r="D86" t="s">
         <v>84</v>
       </c>
-      <c r="D10" t="s">
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="6">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="B87" t="s">
+        <v>251</v>
+      </c>
+      <c r="C87" t="s">
+        <v>252</v>
+      </c>
+      <c r="D87" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="6">
+        <f t="shared" si="1"/>
         <v>85</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+      <c r="B88" t="s">
+        <v>253</v>
+      </c>
+      <c r="C88" t="s">
+        <v>254</v>
+      </c>
+      <c r="D88" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="6">
+        <f t="shared" si="1"/>
         <v>86</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B89" t="s">
+        <v>256</v>
+      </c>
+      <c r="C89" t="s">
+        <v>257</v>
+      </c>
+      <c r="D89" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="6">
+        <f t="shared" si="1"/>
         <v>87</v>
       </c>
-      <c r="D11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+      <c r="B90" t="s">
+        <v>258</v>
+      </c>
+      <c r="C90" t="s">
+        <v>259</v>
+      </c>
+      <c r="D90" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="6">
+        <f t="shared" si="1"/>
         <v>88</v>
       </c>
-      <c r="C12" t="s">
+      <c r="B91" t="s">
+        <v>260</v>
+      </c>
+      <c r="C91" t="s">
+        <v>261</v>
+      </c>
+      <c r="D91" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="6">
+        <f t="shared" si="1"/>
         <v>89</v>
       </c>
-      <c r="D12" t="s">
+      <c r="B92" t="s">
+        <v>262</v>
+      </c>
+      <c r="C92" t="s">
+        <v>263</v>
+      </c>
+      <c r="D92" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="6">
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+      <c r="B93" t="s">
+        <v>264</v>
+      </c>
+      <c r="C93" t="s">
+        <v>265</v>
+      </c>
+      <c r="D93" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="6">
+        <f t="shared" si="1"/>
         <v>91</v>
       </c>
-      <c r="C13" t="s">
+      <c r="B94" t="s">
+        <v>266</v>
+      </c>
+      <c r="C94" t="s">
+        <v>267</v>
+      </c>
+      <c r="D94" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="6">
+        <f t="shared" si="1"/>
         <v>92</v>
       </c>
-      <c r="D13" t="s">
+      <c r="B95" t="s">
+        <v>268</v>
+      </c>
+      <c r="C95" t="s">
+        <v>269</v>
+      </c>
+      <c r="D95" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="6">
+        <f t="shared" si="1"/>
         <v>93</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+      <c r="B96" t="s">
+        <v>270</v>
+      </c>
+      <c r="C96" t="s">
+        <v>271</v>
+      </c>
+      <c r="D96" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="6">
+        <f t="shared" si="1"/>
         <v>94</v>
       </c>
-      <c r="C14" t="s">
+      <c r="B97" t="s">
+        <v>272</v>
+      </c>
+      <c r="C97" t="s">
+        <v>273</v>
+      </c>
+      <c r="D97" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="6">
+        <f t="shared" si="1"/>
         <v>95</v>
       </c>
-      <c r="D14" t="s">
+      <c r="B98" t="s">
+        <v>274</v>
+      </c>
+      <c r="C98" t="s">
+        <v>275</v>
+      </c>
+      <c r="D98" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="6">
+        <f t="shared" si="1"/>
         <v>96</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+      <c r="B99" t="s">
+        <v>276</v>
+      </c>
+      <c r="C99" t="s">
+        <v>277</v>
+      </c>
+      <c r="D99" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="6">
+        <f t="shared" si="1"/>
         <v>97</v>
       </c>
-      <c r="C15" t="s">
+      <c r="B100" t="s">
+        <v>278</v>
+      </c>
+      <c r="C100" t="s">
+        <v>279</v>
+      </c>
+      <c r="D100" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="6">
+        <f t="shared" si="1"/>
         <v>98</v>
       </c>
-      <c r="D15" t="s">
+      <c r="B101" t="s">
+        <v>280</v>
+      </c>
+      <c r="C101" t="s">
+        <v>281</v>
+      </c>
+      <c r="D101" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="6">
+        <f t="shared" si="1"/>
         <v>99</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+      <c r="B102" t="s">
+        <v>282</v>
+      </c>
+      <c r="C102" t="s">
+        <v>283</v>
+      </c>
+      <c r="D102" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="6">
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B103" t="s">
+        <v>284</v>
+      </c>
+      <c r="C103" t="s">
+        <v>285</v>
+      </c>
+      <c r="D103" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="6">
+        <f t="shared" si="1"/>
         <v>101</v>
       </c>
-      <c r="D16" t="s">
+      <c r="B104" t="s">
+        <v>286</v>
+      </c>
+      <c r="C104" t="s">
+        <v>287</v>
+      </c>
+      <c r="D104" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="6">
+        <f t="shared" si="1"/>
         <v>102</v>
       </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+      <c r="B105" t="s">
+        <v>288</v>
+      </c>
+      <c r="C105" t="s">
+        <v>289</v>
+      </c>
+      <c r="D105" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="6">
+        <f t="shared" si="1"/>
         <v>103</v>
       </c>
-      <c r="C17" t="s">
+      <c r="B106" t="s">
+        <v>290</v>
+      </c>
+      <c r="C106" t="s">
+        <v>291</v>
+      </c>
+      <c r="D106" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="6">
+        <f t="shared" si="1"/>
         <v>104</v>
       </c>
-      <c r="D17" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+      <c r="B107" t="s">
+        <v>292</v>
+      </c>
+      <c r="C107" t="s">
+        <v>293</v>
+      </c>
+      <c r="D107" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="6">
+        <f t="shared" si="1"/>
         <v>105</v>
       </c>
-      <c r="C18" t="s">
+      <c r="B108" t="s">
+        <v>294</v>
+      </c>
+      <c r="C108" t="s">
+        <v>295</v>
+      </c>
+      <c r="D108" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="6">
+        <f t="shared" si="1"/>
         <v>106</v>
       </c>
-      <c r="D18" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+      <c r="B109" t="s">
+        <v>296</v>
+      </c>
+      <c r="C109" t="s">
+        <v>297</v>
+      </c>
+      <c r="D109" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="6">
+        <f t="shared" si="1"/>
         <v>107</v>
       </c>
-      <c r="C19" t="s">
+      <c r="B110" t="s">
+        <v>298</v>
+      </c>
+      <c r="C110" t="s">
+        <v>299</v>
+      </c>
+      <c r="D110" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="6">
+        <f t="shared" si="1"/>
         <v>108</v>
       </c>
-      <c r="D19" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+      <c r="B111" t="s">
+        <v>300</v>
+      </c>
+      <c r="C111" t="s">
+        <v>301</v>
+      </c>
+      <c r="D111" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="6">
+        <f t="shared" si="1"/>
         <v>109</v>
       </c>
-      <c r="C20" t="s">
+      <c r="B112" t="s">
+        <v>302</v>
+      </c>
+      <c r="C112" t="s">
+        <v>303</v>
+      </c>
+      <c r="D112" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="6">
+        <f t="shared" si="1"/>
         <v>110</v>
       </c>
-      <c r="D20" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+      <c r="B113" t="s">
+        <v>304</v>
+      </c>
+      <c r="C113" t="s">
+        <v>305</v>
+      </c>
+      <c r="D113" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="6">
+        <f t="shared" si="1"/>
         <v>111</v>
       </c>
-      <c r="C21" t="s">
+      <c r="B114" t="s">
+        <v>306</v>
+      </c>
+      <c r="C114" t="s">
+        <v>307</v>
+      </c>
+      <c r="D114" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="6">
+        <f t="shared" si="1"/>
         <v>112</v>
       </c>
-      <c r="D21" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+      <c r="B115" t="s">
+        <v>308</v>
+      </c>
+      <c r="C115" t="s">
+        <v>309</v>
+      </c>
+      <c r="D115" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="6">
+        <f t="shared" si="1"/>
         <v>113</v>
       </c>
-      <c r="C22" t="s">
+      <c r="B116" t="s">
+        <v>310</v>
+      </c>
+      <c r="C116" t="s">
+        <v>311</v>
+      </c>
+      <c r="D116" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="6">
+        <f t="shared" si="1"/>
         <v>114</v>
       </c>
-      <c r="D22" t="s">
+      <c r="B117" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="6">
+        <f t="shared" si="1"/>
         <v>115</v>
       </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+      <c r="B118" t="s">
+        <v>313</v>
+      </c>
+      <c r="C118" t="s">
+        <v>314</v>
+      </c>
+      <c r="D118" s="11"/>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="6">
+        <f t="shared" si="1"/>
         <v>116</v>
       </c>
-      <c r="C23" t="s">
+      <c r="B119" t="s">
+        <v>315</v>
+      </c>
+      <c r="C119" t="s">
+        <v>316</v>
+      </c>
+      <c r="D119" s="11"/>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="6">
+        <f t="shared" si="1"/>
         <v>117</v>
       </c>
-      <c r="D23" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+      <c r="B120" t="s">
+        <v>317</v>
+      </c>
+      <c r="C120" t="s">
+        <v>318</v>
+      </c>
+      <c r="D120" s="11"/>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="6">
+        <f t="shared" si="1"/>
         <v>118</v>
       </c>
-      <c r="C24" t="s">
+      <c r="B121" t="s">
+        <v>319</v>
+      </c>
+      <c r="C121" t="s">
+        <v>320</v>
+      </c>
+      <c r="D121" s="11"/>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="6">
+        <f t="shared" si="1"/>
         <v>119</v>
       </c>
-      <c r="D24" t="s">
+      <c r="B122" t="s">
+        <v>321</v>
+      </c>
+      <c r="C122" t="s">
+        <v>322</v>
+      </c>
+      <c r="D122" s="11"/>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="6">
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+      <c r="B123" t="s">
+        <v>323</v>
+      </c>
+      <c r="C123" t="s">
+        <v>324</v>
+      </c>
+      <c r="D123" s="11"/>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="6">
+        <f t="shared" si="1"/>
         <v>121</v>
       </c>
-      <c r="C25" t="s">
+      <c r="B124" t="s">
+        <v>325</v>
+      </c>
+      <c r="C124" t="s">
+        <v>326</v>
+      </c>
+      <c r="D124" s="11"/>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="6">
+        <f t="shared" si="1"/>
         <v>122</v>
       </c>
-      <c r="D25" t="s">
+      <c r="B125" t="s">
+        <v>327</v>
+      </c>
+      <c r="C125" t="s">
+        <v>328</v>
+      </c>
+      <c r="D125" s="11"/>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="6">
+        <f t="shared" si="1"/>
         <v>123</v>
       </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+      <c r="B126" t="s">
+        <v>329</v>
+      </c>
+      <c r="C126" t="s">
+        <v>330</v>
+      </c>
+      <c r="D126" s="11"/>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="6">
+        <f t="shared" si="1"/>
         <v>124</v>
       </c>
-      <c r="C26" t="s">
+      <c r="B127" t="s">
+        <v>331</v>
+      </c>
+      <c r="C127" t="s">
+        <v>332</v>
+      </c>
+      <c r="D127" s="11"/>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="6">
+        <f t="shared" si="1"/>
         <v>125</v>
       </c>
-      <c r="D26" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+      <c r="B128" t="s">
+        <v>333</v>
+      </c>
+      <c r="C128" t="s">
+        <v>334</v>
+      </c>
+      <c r="D128" s="11"/>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="6">
+        <f t="shared" si="1"/>
         <v>126</v>
       </c>
-      <c r="C27" t="s">
+      <c r="B129" t="s">
+        <v>335</v>
+      </c>
+      <c r="C129" t="s">
+        <v>336</v>
+      </c>
+      <c r="D129" s="11"/>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="6">
+        <f t="shared" si="1"/>
         <v>127</v>
       </c>
-      <c r="D27" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+      <c r="B130" t="s">
+        <v>337</v>
+      </c>
+      <c r="C130" t="s">
+        <v>338</v>
+      </c>
+      <c r="D130" s="11"/>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="6">
+        <f t="shared" si="1"/>
         <v>128</v>
       </c>
-      <c r="C28" t="s">
+      <c r="B131" t="s">
+        <v>339</v>
+      </c>
+      <c r="C131" t="s">
+        <v>340</v>
+      </c>
+      <c r="D131" s="11"/>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="6">
+        <f t="shared" si="1"/>
         <v>129</v>
       </c>
-      <c r="D28" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+      <c r="B132" t="s">
+        <v>341</v>
+      </c>
+      <c r="C132" t="s">
+        <v>342</v>
+      </c>
+      <c r="D132" s="11"/>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" s="6">
+        <f t="shared" si="1"/>
         <v>130</v>
       </c>
-      <c r="C29" t="s">
+      <c r="B133" t="s">
+        <v>343</v>
+      </c>
+      <c r="C133" t="s">
+        <v>344</v>
+      </c>
+      <c r="D133" s="11"/>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="6">
+        <f t="shared" ref="A134:A197" si="2">1+A133</f>
         <v>131</v>
       </c>
-      <c r="D29" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
+      <c r="B134" t="s">
+        <v>345</v>
+      </c>
+      <c r="C134" t="s">
+        <v>346</v>
+      </c>
+      <c r="D134" s="11"/>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="6">
+        <f t="shared" si="2"/>
         <v>132</v>
       </c>
-      <c r="C30" t="s">
+      <c r="B135" t="s">
+        <v>347</v>
+      </c>
+      <c r="C135" t="s">
+        <v>348</v>
+      </c>
+      <c r="D135" s="11"/>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="6">
+        <f t="shared" si="2"/>
         <v>133</v>
       </c>
-      <c r="D30" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
+      <c r="B136" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" s="6">
+        <f t="shared" si="2"/>
         <v>134</v>
       </c>
-      <c r="C31" t="s">
-        <v>135</v>
-      </c>
-      <c r="D31" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>136</v>
-      </c>
-      <c r="C32" t="s">
-        <v>137</v>
-      </c>
-      <c r="D32" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>138</v>
-      </c>
-      <c r="C33" t="s">
-        <v>139</v>
-      </c>
-      <c r="D33" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>140</v>
-      </c>
-      <c r="C34" t="s">
-        <v>141</v>
-      </c>
-      <c r="D34" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>142</v>
-      </c>
-      <c r="C35" t="s">
-        <v>143</v>
-      </c>
-      <c r="D35" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>144</v>
-      </c>
-      <c r="C36" t="s">
-        <v>145</v>
-      </c>
-      <c r="D36" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>146</v>
-      </c>
-      <c r="C37" t="s">
-        <v>147</v>
-      </c>
-      <c r="D37" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>148</v>
-      </c>
-      <c r="C38" t="s">
-        <v>149</v>
-      </c>
-      <c r="D38" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>150</v>
-      </c>
-      <c r="C39" t="s">
-        <v>151</v>
-      </c>
-      <c r="D39" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>152</v>
-      </c>
-      <c r="C40" t="s">
-        <v>153</v>
-      </c>
-      <c r="D40" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
-        <v>154</v>
-      </c>
-      <c r="C41" t="s">
-        <v>155</v>
-      </c>
-      <c r="D41" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
-        <v>156</v>
-      </c>
-      <c r="C42" t="s">
-        <v>157</v>
-      </c>
-      <c r="D42" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>159</v>
-      </c>
-      <c r="C43" t="s">
-        <v>160</v>
-      </c>
-      <c r="D43" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
-        <v>161</v>
-      </c>
-      <c r="C44" t="s">
-        <v>162</v>
-      </c>
-      <c r="D44" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
-        <v>163</v>
-      </c>
-      <c r="C45" t="s">
-        <v>164</v>
-      </c>
-      <c r="D45" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
-        <v>165</v>
-      </c>
-      <c r="C46" t="s">
-        <v>166</v>
-      </c>
-      <c r="D46" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
-        <v>167</v>
-      </c>
-      <c r="C47" t="s">
-        <v>168</v>
-      </c>
-      <c r="D47" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
-        <v>170</v>
-      </c>
-      <c r="C48" t="s">
-        <v>171</v>
-      </c>
-      <c r="D48" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
-        <v>172</v>
-      </c>
-      <c r="C49" t="s">
-        <v>173</v>
-      </c>
-      <c r="D49" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
-        <v>174</v>
-      </c>
-      <c r="C50" t="s">
-        <v>175</v>
-      </c>
-      <c r="D50" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
-        <v>177</v>
-      </c>
-      <c r="C51" t="s">
-        <v>178</v>
-      </c>
-      <c r="D51" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
-        <v>179</v>
-      </c>
-      <c r="C52" t="s">
-        <v>180</v>
-      </c>
-      <c r="D52" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
-        <v>181</v>
-      </c>
-      <c r="C53" t="s">
-        <v>182</v>
-      </c>
-      <c r="D53" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
-        <v>183</v>
-      </c>
-      <c r="C54" t="s">
-        <v>184</v>
-      </c>
-      <c r="D54" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
-        <v>185</v>
-      </c>
-      <c r="C55" t="s">
-        <v>186</v>
-      </c>
-      <c r="D55" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
-        <v>188</v>
-      </c>
-      <c r="C56" t="s">
-        <v>189</v>
-      </c>
-      <c r="D56" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
-        <v>190</v>
-      </c>
-      <c r="C57" t="s">
-        <v>191</v>
-      </c>
-      <c r="D57" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
-        <v>192</v>
-      </c>
-      <c r="C58" t="s">
-        <v>193</v>
-      </c>
-      <c r="D58" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
-        <v>195</v>
-      </c>
-      <c r="C59" t="s">
-        <v>196</v>
-      </c>
-      <c r="D59" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
-        <v>197</v>
-      </c>
-      <c r="C60" t="s">
-        <v>198</v>
-      </c>
-      <c r="D60" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
-        <v>199</v>
-      </c>
-      <c r="C61" t="s">
-        <v>200</v>
-      </c>
-      <c r="D61" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
-        <v>201</v>
-      </c>
-      <c r="C62" t="s">
-        <v>202</v>
-      </c>
-      <c r="D62" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
-        <v>203</v>
-      </c>
-      <c r="C63" t="s">
-        <v>204</v>
-      </c>
-      <c r="D63" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B64" t="s">
-        <v>205</v>
-      </c>
-      <c r="C64" t="s">
-        <v>206</v>
-      </c>
-      <c r="D64" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
-        <v>207</v>
-      </c>
-      <c r="C65" t="s">
-        <v>208</v>
-      </c>
-      <c r="D65" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B66" t="s">
-        <v>209</v>
-      </c>
-      <c r="C66" t="s">
-        <v>210</v>
-      </c>
-      <c r="D66" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
-        <v>211</v>
-      </c>
-      <c r="C67" t="s">
-        <v>212</v>
-      </c>
-      <c r="D67" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B68" t="s">
-        <v>213</v>
-      </c>
-      <c r="C68" t="s">
-        <v>214</v>
-      </c>
-      <c r="D68" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B69" t="s">
-        <v>215</v>
-      </c>
-      <c r="C69" t="s">
-        <v>216</v>
-      </c>
-      <c r="D69" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B70" t="s">
-        <v>217</v>
-      </c>
-      <c r="C70" t="s">
-        <v>218</v>
-      </c>
-      <c r="D70" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B71" t="s">
-        <v>220</v>
-      </c>
-      <c r="C71" t="s">
-        <v>221</v>
-      </c>
-      <c r="D71" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B72" t="s">
-        <v>222</v>
-      </c>
-      <c r="C72" t="s">
-        <v>223</v>
-      </c>
-      <c r="D72" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B73" t="s">
-        <v>224</v>
-      </c>
-      <c r="C73" t="s">
-        <v>225</v>
-      </c>
-      <c r="D73" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B74" t="s">
-        <v>226</v>
-      </c>
-      <c r="C74" t="s">
-        <v>227</v>
-      </c>
-      <c r="D74" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B75" t="s">
-        <v>228</v>
-      </c>
-      <c r="C75" t="s">
-        <v>229</v>
-      </c>
-      <c r="D75" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B76" t="s">
-        <v>230</v>
-      </c>
-      <c r="C76" t="s">
-        <v>231</v>
-      </c>
-      <c r="D76" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B77" t="s">
-        <v>232</v>
-      </c>
-      <c r="C77" t="s">
-        <v>233</v>
-      </c>
-      <c r="D77" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B78" t="s">
-        <v>234</v>
-      </c>
-      <c r="C78" t="s">
-        <v>235</v>
-      </c>
-      <c r="D78" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B79" t="s">
-        <v>236</v>
-      </c>
-      <c r="C79" t="s">
-        <v>237</v>
-      </c>
-      <c r="D79" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B80" t="s">
-        <v>238</v>
-      </c>
-      <c r="C80" t="s">
-        <v>239</v>
-      </c>
-      <c r="D80" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B81" t="s">
-        <v>240</v>
-      </c>
-      <c r="C81" t="s">
-        <v>241</v>
-      </c>
-      <c r="D81" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B82" t="s">
-        <v>242</v>
-      </c>
-      <c r="C82" t="s">
-        <v>243</v>
-      </c>
-      <c r="D82" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B83" t="s">
-        <v>244</v>
-      </c>
-      <c r="C83" t="s">
-        <v>245</v>
-      </c>
-      <c r="D83" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B84" t="s">
-        <v>246</v>
-      </c>
-      <c r="C84" t="s">
-        <v>247</v>
-      </c>
-      <c r="D84" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B85" t="s">
-        <v>248</v>
-      </c>
-      <c r="C85" t="s">
-        <v>249</v>
-      </c>
-      <c r="D85" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B86" t="s">
-        <v>250</v>
-      </c>
-      <c r="C86" t="s">
-        <v>251</v>
-      </c>
-      <c r="D86" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B87" t="s">
-        <v>252</v>
-      </c>
-      <c r="C87" t="s">
-        <v>253</v>
-      </c>
-      <c r="D87" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B88" t="s">
-        <v>254</v>
-      </c>
-      <c r="C88" t="s">
-        <v>255</v>
-      </c>
-      <c r="D88" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B89" t="s">
-        <v>257</v>
-      </c>
-      <c r="C89" t="s">
-        <v>258</v>
-      </c>
-      <c r="D89" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B90" t="s">
-        <v>259</v>
-      </c>
-      <c r="C90" t="s">
-        <v>260</v>
-      </c>
-      <c r="D90" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B91" t="s">
-        <v>261</v>
-      </c>
-      <c r="C91" t="s">
-        <v>262</v>
-      </c>
-      <c r="D91" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B92" t="s">
-        <v>263</v>
-      </c>
-      <c r="C92" t="s">
-        <v>264</v>
-      </c>
-      <c r="D92" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B93" t="s">
-        <v>265</v>
-      </c>
-      <c r="C93" t="s">
-        <v>266</v>
-      </c>
-      <c r="D93" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B94" t="s">
-        <v>267</v>
-      </c>
-      <c r="C94" t="s">
-        <v>268</v>
-      </c>
-      <c r="D94" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B95" t="s">
-        <v>269</v>
-      </c>
-      <c r="C95" t="s">
-        <v>270</v>
-      </c>
-      <c r="D95" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B96" t="s">
-        <v>271</v>
-      </c>
-      <c r="C96" t="s">
-        <v>272</v>
-      </c>
-      <c r="D96" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B97" t="s">
-        <v>273</v>
-      </c>
-      <c r="C97" t="s">
-        <v>274</v>
-      </c>
-      <c r="D97" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B98" t="s">
-        <v>275</v>
-      </c>
-      <c r="C98" t="s">
-        <v>276</v>
-      </c>
-      <c r="D98" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B99" t="s">
-        <v>277</v>
-      </c>
-      <c r="C99" t="s">
-        <v>278</v>
-      </c>
-      <c r="D99" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B100" t="s">
-        <v>279</v>
-      </c>
-      <c r="C100" t="s">
-        <v>280</v>
-      </c>
-      <c r="D100" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B101" t="s">
-        <v>281</v>
-      </c>
-      <c r="C101" t="s">
-        <v>282</v>
-      </c>
-      <c r="D101" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B102" t="s">
-        <v>283</v>
-      </c>
-      <c r="C102" t="s">
-        <v>284</v>
-      </c>
-      <c r="D102" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B103" t="s">
-        <v>285</v>
-      </c>
-      <c r="C103" t="s">
-        <v>286</v>
-      </c>
-      <c r="D103" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B104" t="s">
-        <v>287</v>
-      </c>
-      <c r="C104" t="s">
-        <v>288</v>
-      </c>
-      <c r="D104" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B105" t="s">
-        <v>289</v>
-      </c>
-      <c r="C105" t="s">
-        <v>290</v>
-      </c>
-      <c r="D105" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B106" t="s">
-        <v>291</v>
-      </c>
-      <c r="C106" t="s">
-        <v>292</v>
-      </c>
-      <c r="D106" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B107" t="s">
-        <v>293</v>
-      </c>
-      <c r="C107" t="s">
-        <v>294</v>
-      </c>
-      <c r="D107" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B108" t="s">
-        <v>295</v>
-      </c>
-      <c r="C108" t="s">
-        <v>296</v>
-      </c>
-      <c r="D108" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="109" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B109" t="s">
-        <v>297</v>
-      </c>
-      <c r="C109" t="s">
-        <v>298</v>
-      </c>
-      <c r="D109" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="110" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B110" t="s">
-        <v>299</v>
-      </c>
-      <c r="C110" t="s">
-        <v>300</v>
-      </c>
-      <c r="D110" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="111" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B111" t="s">
-        <v>301</v>
-      </c>
-      <c r="C111" t="s">
-        <v>302</v>
-      </c>
-      <c r="D111" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="112" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B112" t="s">
-        <v>303</v>
-      </c>
-      <c r="C112" t="s">
-        <v>304</v>
-      </c>
-      <c r="D112" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="113" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B113" t="s">
-        <v>305</v>
-      </c>
-      <c r="C113" t="s">
-        <v>306</v>
-      </c>
-      <c r="D113" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="114" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B114" t="s">
-        <v>307</v>
-      </c>
-      <c r="C114" t="s">
-        <v>308</v>
-      </c>
-      <c r="D114" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="115" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B115" t="s">
-        <v>309</v>
-      </c>
-      <c r="C115" t="s">
-        <v>310</v>
-      </c>
-      <c r="D115" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="116" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B116" t="s">
-        <v>311</v>
-      </c>
-      <c r="C116" t="s">
-        <v>312</v>
-      </c>
-      <c r="D116" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="117" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B117" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="118" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B118" t="s">
-        <v>314</v>
-      </c>
-      <c r="C118" t="s">
-        <v>315</v>
-      </c>
-      <c r="D118" s="11">
-        <v>1442584320</v>
-      </c>
-    </row>
-    <row r="119" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B119" t="s">
-        <v>316</v>
-      </c>
-      <c r="C119" t="s">
-        <v>317</v>
-      </c>
-      <c r="D119" s="11">
-        <v>1431245213</v>
-      </c>
-    </row>
-    <row r="120" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B120" t="s">
-        <v>318</v>
-      </c>
-      <c r="C120" t="s">
-        <v>319</v>
-      </c>
-      <c r="D120" s="11">
-        <v>1411416577</v>
-      </c>
-    </row>
-    <row r="121" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B121" t="s">
-        <v>320</v>
-      </c>
-      <c r="C121" t="s">
-        <v>321</v>
-      </c>
-      <c r="D121" s="11">
-        <v>1374756455</v>
-      </c>
-    </row>
-    <row r="122" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B122" t="s">
-        <v>322</v>
-      </c>
-      <c r="C122" t="s">
-        <v>323</v>
-      </c>
-      <c r="D122" s="11">
-        <v>1365197312</v>
-      </c>
-    </row>
-    <row r="123" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B123" t="s">
-        <v>324</v>
-      </c>
-      <c r="C123" t="s">
-        <v>325</v>
-      </c>
-      <c r="D123" s="11">
-        <v>1342886648</v>
-      </c>
-    </row>
-    <row r="124" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B124" t="s">
-        <v>326</v>
-      </c>
-      <c r="C124" t="s">
-        <v>327</v>
-      </c>
-      <c r="D124" s="11">
-        <v>1315213440</v>
-      </c>
-    </row>
-    <row r="125" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B125" t="s">
-        <v>328</v>
-      </c>
-      <c r="C125" t="s">
-        <v>329</v>
-      </c>
-      <c r="D125" s="11">
-        <v>1310218752</v>
-      </c>
-    </row>
-    <row r="126" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B126" t="s">
-        <v>330</v>
-      </c>
-      <c r="C126" t="s">
-        <v>331</v>
-      </c>
-      <c r="D126" s="11">
-        <v>1308353833</v>
-      </c>
-    </row>
-    <row r="127" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B127" t="s">
-        <v>332</v>
-      </c>
-      <c r="C127" t="s">
-        <v>333</v>
-      </c>
-      <c r="D127" s="11">
-        <v>1298248416</v>
-      </c>
-    </row>
-    <row r="128" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B128" t="s">
-        <v>334</v>
-      </c>
-      <c r="C128" t="s">
-        <v>335</v>
-      </c>
-      <c r="D128" s="11">
-        <v>1250642794</v>
-      </c>
-    </row>
-    <row r="129" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B129" t="s">
-        <v>336</v>
-      </c>
-      <c r="C129" t="s">
-        <v>337</v>
-      </c>
-      <c r="D129" s="11">
-        <v>1230877122</v>
-      </c>
-    </row>
-    <row r="130" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B130" t="s">
-        <v>338</v>
-      </c>
-      <c r="C130" t="s">
-        <v>339</v>
-      </c>
-      <c r="D130" s="11">
-        <v>1206171008</v>
-      </c>
-    </row>
-    <row r="131" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B131" t="s">
-        <v>340</v>
-      </c>
-      <c r="C131" t="s">
-        <v>341</v>
-      </c>
-      <c r="D131" s="11">
-        <v>1173557223</v>
-      </c>
-    </row>
-    <row r="132" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B132" t="s">
-        <v>342</v>
-      </c>
-      <c r="C132" t="s">
-        <v>343</v>
-      </c>
-      <c r="D132" s="11">
-        <v>1160469760</v>
-      </c>
-    </row>
-    <row r="133" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B133" t="s">
-        <v>344</v>
-      </c>
-      <c r="C133" t="s">
-        <v>345</v>
-      </c>
-      <c r="D133" s="11">
-        <v>1156987581</v>
-      </c>
-    </row>
-    <row r="134" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B134" t="s">
-        <v>346</v>
-      </c>
-      <c r="C134" t="s">
-        <v>347</v>
-      </c>
-      <c r="D134" s="11">
-        <v>1118455168</v>
-      </c>
-    </row>
-    <row r="135" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B135" t="s">
-        <v>348</v>
-      </c>
-      <c r="C135" t="s">
-        <v>349</v>
-      </c>
-      <c r="D135" s="11">
-        <v>1111297920</v>
-      </c>
-    </row>
-    <row r="136" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B136" t="s">
+      <c r="B137" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="137" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B137" t="s">
+      <c r="C137" t="s">
         <v>351</v>
-      </c>
-      <c r="C137" t="s">
-        <v>352</v>
       </c>
       <c r="D137" s="11">
         <v>1028470016</v>
       </c>
     </row>
-    <row r="138" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" s="6">
+        <f t="shared" si="2"/>
+        <v>135</v>
+      </c>
       <c r="B138" t="s">
+        <v>352</v>
+      </c>
+      <c r="C138" t="s">
         <v>353</v>
-      </c>
-      <c r="C138" t="s">
-        <v>354</v>
       </c>
       <c r="D138" s="11">
         <v>1022370544</v>
       </c>
     </row>
-    <row r="139" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" s="6">
+        <f t="shared" si="2"/>
+        <v>136</v>
+      </c>
       <c r="B139" t="s">
+        <v>354</v>
+      </c>
+      <c r="C139" t="s">
         <v>355</v>
-      </c>
-      <c r="C139" t="s">
-        <v>356</v>
       </c>
       <c r="D139" s="11">
         <v>1021736512</v>
       </c>
     </row>
-    <row r="140" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" s="6">
+        <f t="shared" si="2"/>
+        <v>137</v>
+      </c>
       <c r="B140" t="s">
+        <v>356</v>
+      </c>
+      <c r="C140" t="s">
         <v>357</v>
-      </c>
-      <c r="C140" t="s">
-        <v>358</v>
       </c>
       <c r="D140" s="11">
         <v>963349356</v>
       </c>
     </row>
-    <row r="141" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" s="6">
+        <f t="shared" si="2"/>
+        <v>138</v>
+      </c>
       <c r="B141" t="s">
+        <v>358</v>
+      </c>
+      <c r="C141" t="s">
         <v>359</v>
-      </c>
-      <c r="C141" t="s">
-        <v>360</v>
       </c>
       <c r="D141" s="11">
         <v>916057056</v>
       </c>
     </row>
-    <row r="142" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" s="6">
+        <f t="shared" si="2"/>
+        <v>139</v>
+      </c>
       <c r="B142" t="s">
+        <v>360</v>
+      </c>
+      <c r="C142" t="s">
         <v>361</v>
-      </c>
-      <c r="C142" t="s">
-        <v>362</v>
       </c>
       <c r="D142" s="11">
         <v>915770679</v>
       </c>
     </row>
-    <row r="143" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" s="6">
+        <f t="shared" si="2"/>
+        <v>140</v>
+      </c>
       <c r="B143" t="s">
+        <v>362</v>
+      </c>
+      <c r="C143" t="s">
         <v>363</v>
-      </c>
-      <c r="C143" t="s">
-        <v>364</v>
       </c>
       <c r="D143" s="11">
         <v>897741791</v>
       </c>
     </row>
-    <row r="144" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" s="6">
+        <f t="shared" si="2"/>
+        <v>141</v>
+      </c>
       <c r="B144" t="s">
+        <v>364</v>
+      </c>
+      <c r="C144" t="s">
         <v>365</v>
-      </c>
-      <c r="C144" t="s">
-        <v>366</v>
       </c>
       <c r="D144" s="11">
         <v>883459968</v>
       </c>
     </row>
-    <row r="145" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" s="6">
+        <f t="shared" si="2"/>
+        <v>142</v>
+      </c>
       <c r="B145" t="s">
+        <v>366</v>
+      </c>
+      <c r="C145" t="s">
         <v>367</v>
-      </c>
-      <c r="C145" t="s">
-        <v>368</v>
       </c>
       <c r="D145" s="11">
         <v>879114752</v>
       </c>
     </row>
-    <row r="146" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" s="6">
+        <f t="shared" si="2"/>
+        <v>143</v>
+      </c>
       <c r="B146" t="s">
+        <v>368</v>
+      </c>
+      <c r="C146" t="s">
         <v>369</v>
-      </c>
-      <c r="C146" t="s">
-        <v>370</v>
       </c>
       <c r="D146" s="11">
         <v>872812480</v>
       </c>
     </row>
-    <row r="147" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" s="6">
+        <f t="shared" si="2"/>
+        <v>144</v>
+      </c>
       <c r="B147" t="s">
+        <v>370</v>
+      </c>
+      <c r="C147" t="s">
         <v>371</v>
-      </c>
-      <c r="C147" t="s">
-        <v>372</v>
       </c>
       <c r="D147" s="11">
         <v>867636904</v>
       </c>
     </row>
-    <row r="148" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" s="6">
+        <f t="shared" si="2"/>
+        <v>145</v>
+      </c>
       <c r="B148" t="s">
+        <v>372</v>
+      </c>
+      <c r="C148" t="s">
         <v>373</v>
-      </c>
-      <c r="C148" t="s">
-        <v>374</v>
       </c>
       <c r="D148" s="11">
         <v>839963968</v>
       </c>
     </row>
-    <row r="149" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" s="6">
+        <f t="shared" si="2"/>
+        <v>146</v>
+      </c>
       <c r="B149" t="s">
+        <v>374</v>
+      </c>
+      <c r="C149" t="s">
         <v>375</v>
-      </c>
-      <c r="C149" t="s">
-        <v>376</v>
       </c>
       <c r="D149" s="11">
         <v>809358135</v>
       </c>
     </row>
-    <row r="150" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" s="6">
+        <f t="shared" si="2"/>
+        <v>147</v>
+      </c>
       <c r="B150" t="s">
+        <v>376</v>
+      </c>
+      <c r="C150" t="s">
         <v>377</v>
-      </c>
-      <c r="C150" t="s">
-        <v>378</v>
       </c>
       <c r="D150" s="11">
         <v>806839340</v>
       </c>
     </row>
-    <row r="151" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" s="6">
+        <f t="shared" si="2"/>
+        <v>148</v>
+      </c>
       <c r="B151" t="s">
+        <v>378</v>
+      </c>
+      <c r="C151" t="s">
         <v>379</v>
-      </c>
-      <c r="C151" t="s">
-        <v>380</v>
       </c>
       <c r="D151" s="11">
         <v>804490880</v>
       </c>
     </row>
-    <row r="152" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" s="6">
+        <f t="shared" si="2"/>
+        <v>149</v>
+      </c>
       <c r="B152" t="s">
+        <v>380</v>
+      </c>
+      <c r="C152" t="s">
         <v>381</v>
-      </c>
-      <c r="C152" t="s">
-        <v>382</v>
       </c>
       <c r="D152" s="11">
         <v>796813376</v>
       </c>
     </row>
-    <row r="153" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" s="6">
+        <f t="shared" si="2"/>
+        <v>150</v>
+      </c>
       <c r="B153" t="s">
+        <v>382</v>
+      </c>
+      <c r="C153" t="s">
         <v>383</v>
-      </c>
-      <c r="C153" t="s">
-        <v>384</v>
       </c>
       <c r="D153" s="11">
         <v>791724160</v>
       </c>
     </row>
-    <row r="154" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" s="6">
+        <f t="shared" si="2"/>
+        <v>151</v>
+      </c>
       <c r="B154" t="s">
+        <v>384</v>
+      </c>
+      <c r="C154" t="s">
         <v>385</v>
-      </c>
-      <c r="C154" t="s">
-        <v>386</v>
       </c>
       <c r="D154" s="11">
         <v>781390144</v>
       </c>
     </row>
-    <row r="155" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" s="6">
+        <f t="shared" si="2"/>
+        <v>152</v>
+      </c>
       <c r="B155" t="s">
+        <v>386</v>
+      </c>
+      <c r="C155" t="s">
         <v>387</v>
-      </c>
-      <c r="C155" t="s">
-        <v>388</v>
       </c>
       <c r="D155" s="11">
         <v>771114578</v>
       </c>
     </row>
-    <row r="156" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" s="6">
+        <f t="shared" si="2"/>
+        <v>153</v>
+      </c>
       <c r="B156" t="s">
+        <v>388</v>
+      </c>
+      <c r="C156" t="s">
         <v>389</v>
-      </c>
-      <c r="C156" t="s">
-        <v>390</v>
       </c>
       <c r="D156" s="11">
         <v>724678791</v>
       </c>
     </row>
-    <row r="157" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" s="6">
+        <f t="shared" si="2"/>
+        <v>154</v>
+      </c>
       <c r="B157" t="s">
+        <v>390</v>
+      </c>
+      <c r="C157" t="s">
         <v>391</v>
-      </c>
-      <c r="C157" t="s">
-        <v>392</v>
       </c>
       <c r="D157" s="11">
         <v>718399128</v>
       </c>
     </row>
-    <row r="158" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" s="6">
+        <f t="shared" si="2"/>
+        <v>155</v>
+      </c>
       <c r="B158" t="s">
+        <v>392</v>
+      </c>
+      <c r="C158" t="s">
         <v>393</v>
-      </c>
-      <c r="C158" t="s">
-        <v>394</v>
       </c>
       <c r="D158" s="11">
         <v>683822012</v>
       </c>
     </row>
-    <row r="159" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" s="6">
+        <f t="shared" si="2"/>
+        <v>156</v>
+      </c>
       <c r="B159" t="s">
+        <v>394</v>
+      </c>
+      <c r="C159" t="s">
         <v>395</v>
-      </c>
-      <c r="C159" t="s">
-        <v>396</v>
       </c>
       <c r="D159" s="11">
         <v>680072870</v>
       </c>
     </row>
-    <row r="160" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" s="6">
+        <f t="shared" si="2"/>
+        <v>157</v>
+      </c>
       <c r="B160" t="s">
+        <v>396</v>
+      </c>
+      <c r="C160" t="s">
         <v>397</v>
-      </c>
-      <c r="C160" t="s">
-        <v>398</v>
       </c>
       <c r="D160" s="11">
         <v>670485458</v>
       </c>
     </row>
-    <row r="161" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" s="6">
+        <f t="shared" si="2"/>
+        <v>158</v>
+      </c>
       <c r="B161" t="s">
+        <v>398</v>
+      </c>
+      <c r="C161" t="s">
         <v>399</v>
-      </c>
-      <c r="C161" t="s">
-        <v>400</v>
       </c>
       <c r="D161" s="11">
         <v>662825024</v>
       </c>
     </row>
-    <row r="162" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" s="6">
+        <f t="shared" si="2"/>
+        <v>159</v>
+      </c>
       <c r="B162" t="s">
+        <v>400</v>
+      </c>
+      <c r="C162" t="s">
         <v>401</v>
-      </c>
-      <c r="C162" t="s">
-        <v>402</v>
       </c>
       <c r="D162" s="11">
         <v>632421708</v>
       </c>
     </row>
-    <row r="163" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" s="6">
+        <f t="shared" si="2"/>
+        <v>160</v>
+      </c>
       <c r="B163" t="s">
+        <v>402</v>
+      </c>
+      <c r="C163" t="s">
         <v>403</v>
-      </c>
-      <c r="C163" t="s">
-        <v>404</v>
       </c>
       <c r="D163" s="11">
         <v>623013781</v>
       </c>
     </row>
-    <row r="164" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" s="6">
+        <f t="shared" si="2"/>
+        <v>161</v>
+      </c>
       <c r="B164" t="s">
+        <v>404</v>
+      </c>
+      <c r="C164" t="s">
         <v>405</v>
-      </c>
-      <c r="C164" t="s">
-        <v>406</v>
       </c>
       <c r="D164" s="11">
         <v>618756316</v>
       </c>
     </row>
-    <row r="165" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" s="6">
+        <f t="shared" si="2"/>
+        <v>162</v>
+      </c>
       <c r="B165" t="s">
+        <v>406</v>
+      </c>
+      <c r="C165" t="s">
         <v>407</v>
-      </c>
-      <c r="C165" t="s">
-        <v>408</v>
       </c>
       <c r="D165" s="11">
         <v>605217437</v>
       </c>
     </row>
-    <row r="166" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" s="6">
+        <f t="shared" si="2"/>
+        <v>163</v>
+      </c>
       <c r="B166" t="s">
+        <v>408</v>
+      </c>
+      <c r="C166" t="s">
         <v>409</v>
-      </c>
-      <c r="C166" t="s">
-        <v>410</v>
       </c>
       <c r="D166" s="11">
         <v>603712925</v>
       </c>
     </row>
-    <row r="167" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" s="6">
+        <f t="shared" si="2"/>
+        <v>164</v>
+      </c>
       <c r="B167" t="s">
+        <v>410</v>
+      </c>
+      <c r="C167" t="s">
         <v>411</v>
-      </c>
-      <c r="C167" t="s">
-        <v>412</v>
       </c>
       <c r="D167" s="11">
         <v>597003776</v>
       </c>
     </row>
-    <row r="168" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" s="6">
+        <f t="shared" si="2"/>
+        <v>165</v>
+      </c>
       <c r="B168" t="s">
+        <v>412</v>
+      </c>
+      <c r="C168" t="s">
         <v>413</v>
-      </c>
-      <c r="C168" t="s">
-        <v>414</v>
       </c>
       <c r="D168" s="11">
         <v>584677952</v>
       </c>
     </row>
-    <row r="169" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" s="6">
+        <f t="shared" si="2"/>
+        <v>166</v>
+      </c>
       <c r="B169" t="s">
+        <v>414</v>
+      </c>
+      <c r="C169" t="s">
         <v>415</v>
-      </c>
-      <c r="C169" t="s">
-        <v>416</v>
       </c>
       <c r="D169" s="11">
         <v>566445210</v>
       </c>
     </row>
-    <row r="170" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" s="6">
+        <f t="shared" si="2"/>
+        <v>167</v>
+      </c>
       <c r="B170" t="s">
+        <v>416</v>
+      </c>
+      <c r="C170" t="s">
         <v>417</v>
-      </c>
-      <c r="C170" t="s">
-        <v>418</v>
       </c>
       <c r="D170" s="11">
         <v>553275584</v>
       </c>
     </row>
-    <row r="171" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" s="6">
+        <f t="shared" si="2"/>
+        <v>168</v>
+      </c>
       <c r="B171" t="s">
+        <v>418</v>
+      </c>
+      <c r="C171" t="s">
         <v>419</v>
-      </c>
-      <c r="C171" t="s">
-        <v>420</v>
       </c>
       <c r="D171" s="11">
         <v>551565170</v>
       </c>
     </row>
-    <row r="172" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" s="6">
+        <f t="shared" si="2"/>
+        <v>169</v>
+      </c>
       <c r="B172" t="s">
+        <v>420</v>
+      </c>
+      <c r="C172" t="s">
         <v>421</v>
-      </c>
-      <c r="C172" t="s">
-        <v>422</v>
       </c>
       <c r="D172" s="11">
         <v>532741248</v>
       </c>
     </row>
-    <row r="173" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" s="6">
+        <f t="shared" si="2"/>
+        <v>170</v>
+      </c>
       <c r="B173" t="s">
+        <v>422</v>
+      </c>
+      <c r="C173" t="s">
         <v>423</v>
-      </c>
-      <c r="C173" t="s">
-        <v>424</v>
       </c>
       <c r="D173" s="11">
         <v>528815488</v>
       </c>
     </row>
-    <row r="174" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" s="6">
+        <f t="shared" si="2"/>
+        <v>171</v>
+      </c>
       <c r="B174" t="s">
+        <v>424</v>
+      </c>
+      <c r="C174" t="s">
         <v>425</v>
-      </c>
-      <c r="C174" t="s">
-        <v>426</v>
       </c>
       <c r="D174" s="11">
         <v>505292285</v>
       </c>
     </row>
-    <row r="175" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" s="6">
+        <f t="shared" si="2"/>
+        <v>172</v>
+      </c>
       <c r="B175" t="s">
+        <v>426</v>
+      </c>
+      <c r="C175" t="s">
         <v>427</v>
-      </c>
-      <c r="C175" t="s">
-        <v>428</v>
       </c>
       <c r="D175" s="11">
         <v>496141728</v>
       </c>
     </row>
-    <row r="176" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" s="6">
+        <f t="shared" si="2"/>
+        <v>173</v>
+      </c>
       <c r="B176" t="s">
+        <v>428</v>
+      </c>
+      <c r="C176" t="s">
         <v>429</v>
-      </c>
-      <c r="C176" t="s">
-        <v>430</v>
       </c>
       <c r="D176" s="11">
         <v>485312008</v>
       </c>
     </row>
-    <row r="177" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" s="6">
+        <f t="shared" si="2"/>
+        <v>174</v>
+      </c>
       <c r="B177" t="s">
+        <v>430</v>
+      </c>
+      <c r="C177" t="s">
         <v>431</v>
-      </c>
-      <c r="C177" t="s">
-        <v>432</v>
       </c>
       <c r="D177" s="11">
         <v>466570608</v>
       </c>
     </row>
-    <row r="178" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" s="6">
+        <f t="shared" si="2"/>
+        <v>175</v>
+      </c>
       <c r="B178" t="s">
+        <v>432</v>
+      </c>
+      <c r="C178" t="s">
         <v>433</v>
-      </c>
-      <c r="C178" t="s">
-        <v>434</v>
       </c>
       <c r="D178" s="11">
         <v>461955072</v>
       </c>
     </row>
-    <row r="179" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" s="6">
+        <f t="shared" si="2"/>
+        <v>176</v>
+      </c>
       <c r="B179" t="s">
+        <v>434</v>
+      </c>
+      <c r="C179" t="s">
         <v>435</v>
-      </c>
-      <c r="C179" t="s">
-        <v>436</v>
       </c>
       <c r="D179" s="11">
         <v>430596743</v>
       </c>
     </row>
-    <row r="180" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" s="6">
+        <f t="shared" si="2"/>
+        <v>177</v>
+      </c>
       <c r="B180" t="s">
+        <v>436</v>
+      </c>
+      <c r="C180" t="s">
         <v>437</v>
-      </c>
-      <c r="C180" t="s">
-        <v>438</v>
       </c>
       <c r="D180" s="11">
         <v>425832064</v>
       </c>
     </row>
-    <row r="181" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" s="6">
+        <f t="shared" si="2"/>
+        <v>178</v>
+      </c>
       <c r="B181" t="s">
+        <v>438</v>
+      </c>
+      <c r="C181" t="s">
         <v>439</v>
-      </c>
-      <c r="C181" t="s">
-        <v>440</v>
       </c>
       <c r="D181" s="11">
         <v>422887239</v>
       </c>
     </row>
-    <row r="182" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" s="6">
+        <f t="shared" si="2"/>
+        <v>179</v>
+      </c>
       <c r="B182" t="s">
+        <v>440</v>
+      </c>
+      <c r="C182" t="s">
         <v>441</v>
-      </c>
-      <c r="C182" t="s">
-        <v>442</v>
       </c>
       <c r="D182" s="11">
         <v>411193379</v>
       </c>
     </row>
-    <row r="183" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" s="6">
+        <f t="shared" si="2"/>
+        <v>180</v>
+      </c>
       <c r="B183" t="s">
+        <v>442</v>
+      </c>
+      <c r="C183" t="s">
         <v>443</v>
-      </c>
-      <c r="C183" t="s">
-        <v>444</v>
       </c>
       <c r="D183" s="11">
         <v>408410272</v>
       </c>
     </row>
-    <row r="184" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" s="6">
+        <f t="shared" si="2"/>
+        <v>181</v>
+      </c>
       <c r="B184" t="s">
+        <v>444</v>
+      </c>
+      <c r="C184" t="s">
         <v>445</v>
-      </c>
-      <c r="C184" t="s">
-        <v>446</v>
       </c>
       <c r="D184" s="11">
         <v>408284160</v>
       </c>
     </row>
-    <row r="185" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185" s="6">
+        <f t="shared" si="2"/>
+        <v>182</v>
+      </c>
       <c r="B185" t="s">
+        <v>446</v>
+      </c>
+      <c r="C185" t="s">
         <v>447</v>
-      </c>
-      <c r="C185" t="s">
-        <v>448</v>
       </c>
       <c r="D185" s="11">
         <v>353468063</v>
       </c>
     </row>
-    <row r="186" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" s="6">
+        <f t="shared" si="2"/>
+        <v>183</v>
+      </c>
       <c r="B186" t="s">
+        <v>448</v>
+      </c>
+      <c r="C186" t="s">
         <v>449</v>
-      </c>
-      <c r="C186" t="s">
-        <v>450</v>
       </c>
       <c r="D186" s="11">
         <v>349247553</v>
       </c>
     </row>
-    <row r="187" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" s="6">
+        <f t="shared" si="2"/>
+        <v>184</v>
+      </c>
       <c r="B187" t="s">
+        <v>450</v>
+      </c>
+      <c r="C187" t="s">
         <v>451</v>
-      </c>
-      <c r="C187" t="s">
-        <v>452</v>
       </c>
       <c r="D187" s="11">
         <v>345361752</v>
       </c>
     </row>
-    <row r="188" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" s="6">
+        <f t="shared" si="2"/>
+        <v>185</v>
+      </c>
       <c r="B188" t="s">
+        <v>452</v>
+      </c>
+      <c r="C188" t="s">
         <v>453</v>
-      </c>
-      <c r="C188" t="s">
-        <v>454</v>
       </c>
       <c r="D188" s="11">
         <v>331858169</v>
       </c>
     </row>
-    <row r="189" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189" s="6">
+        <f t="shared" si="2"/>
+        <v>186</v>
+      </c>
       <c r="B189" t="s">
+        <v>454</v>
+      </c>
+      <c r="C189" t="s">
         <v>455</v>
-      </c>
-      <c r="C189" t="s">
-        <v>456</v>
       </c>
       <c r="D189" s="11">
         <v>329036001</v>
       </c>
     </row>
-    <row r="190" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" s="6">
+        <f t="shared" si="2"/>
+        <v>187</v>
+      </c>
       <c r="B190" t="s">
+        <v>456</v>
+      </c>
+      <c r="C190" t="s">
         <v>457</v>
-      </c>
-      <c r="C190" t="s">
-        <v>458</v>
       </c>
       <c r="D190" s="11">
         <v>321877568</v>
       </c>
     </row>
-    <row r="191" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191" s="6">
+        <f t="shared" si="2"/>
+        <v>188</v>
+      </c>
       <c r="B191" t="s">
+        <v>458</v>
+      </c>
+      <c r="C191" t="s">
         <v>459</v>
-      </c>
-      <c r="C191" t="s">
-        <v>460</v>
       </c>
       <c r="D191" s="11">
         <v>313822272</v>
       </c>
     </row>
-    <row r="192" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192" s="6">
+        <f t="shared" si="2"/>
+        <v>189</v>
+      </c>
       <c r="B192" t="s">
+        <v>460</v>
+      </c>
+      <c r="C192" t="s">
         <v>461</v>
-      </c>
-      <c r="C192" t="s">
-        <v>462</v>
       </c>
       <c r="D192" s="11">
         <v>313733984</v>
       </c>
     </row>
-    <row r="193" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193" s="6">
+        <f t="shared" si="2"/>
+        <v>190</v>
+      </c>
       <c r="B193" t="s">
+        <v>462</v>
+      </c>
+      <c r="C193" t="s">
         <v>463</v>
-      </c>
-      <c r="C193" t="s">
-        <v>464</v>
       </c>
       <c r="D193" s="11">
         <v>309899296</v>
       </c>
     </row>
-    <row r="194" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194" s="6">
+        <f t="shared" si="2"/>
+        <v>191</v>
+      </c>
       <c r="B194" t="s">
+        <v>464</v>
+      </c>
+      <c r="C194" t="s">
         <v>465</v>
-      </c>
-      <c r="C194" t="s">
-        <v>466</v>
       </c>
       <c r="D194" s="11">
         <v>300329354</v>
       </c>
     </row>
-    <row r="195" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195" s="6">
+        <f t="shared" si="2"/>
+        <v>192</v>
+      </c>
       <c r="B195" t="s">
+        <v>466</v>
+      </c>
+      <c r="C195" t="s">
         <v>467</v>
-      </c>
-      <c r="C195" t="s">
-        <v>468</v>
       </c>
       <c r="D195" s="11">
         <v>292311584</v>
       </c>
     </row>
-    <row r="196" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196" s="6">
+        <f t="shared" si="2"/>
+        <v>193</v>
+      </c>
       <c r="B196" t="s">
+        <v>468</v>
+      </c>
+      <c r="C196" t="s">
         <v>469</v>
-      </c>
-      <c r="C196" t="s">
-        <v>470</v>
       </c>
       <c r="D196" s="11">
         <v>279334304</v>
       </c>
     </row>
-    <row r="197" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197" s="6">
+        <f t="shared" si="2"/>
+        <v>194</v>
+      </c>
       <c r="B197" t="s">
+        <v>470</v>
+      </c>
+      <c r="C197" t="s">
         <v>471</v>
-      </c>
-      <c r="C197" t="s">
-        <v>472</v>
       </c>
       <c r="D197" s="11">
         <v>276176433</v>
       </c>
     </row>
-    <row r="198" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198" s="6">
+        <f t="shared" ref="A198:A261" si="3">1+A197</f>
+        <v>195</v>
+      </c>
       <c r="B198" t="s">
+        <v>472</v>
+      </c>
+      <c r="C198" t="s">
         <v>473</v>
-      </c>
-      <c r="C198" t="s">
-        <v>474</v>
       </c>
       <c r="D198" s="11">
         <v>273508640</v>
       </c>
     </row>
-    <row r="199" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199" s="6">
+        <f t="shared" si="3"/>
+        <v>196</v>
+      </c>
       <c r="B199" t="s">
+        <v>474</v>
+      </c>
+      <c r="C199" t="s">
         <v>475</v>
-      </c>
-      <c r="C199" t="s">
-        <v>476</v>
       </c>
       <c r="D199" s="11">
         <v>272816752</v>
       </c>
     </row>
-    <row r="200" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200" s="6">
+        <f t="shared" si="3"/>
+        <v>197</v>
+      </c>
       <c r="B200" t="s">
+        <v>476</v>
+      </c>
+      <c r="C200" t="s">
         <v>477</v>
-      </c>
-      <c r="C200" t="s">
-        <v>478</v>
       </c>
       <c r="D200" s="11">
         <v>261084442</v>
       </c>
     </row>
-    <row r="201" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201" s="6">
+        <f t="shared" si="3"/>
+        <v>198</v>
+      </c>
       <c r="B201" t="s">
+        <v>478</v>
+      </c>
+      <c r="C201" t="s">
         <v>479</v>
-      </c>
-      <c r="C201" t="s">
-        <v>480</v>
       </c>
       <c r="D201" s="11">
         <v>250590912</v>
       </c>
     </row>
-    <row r="202" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202" s="6">
+        <f t="shared" si="3"/>
+        <v>199</v>
+      </c>
       <c r="B202" t="s">
+        <v>480</v>
+      </c>
+      <c r="C202" t="s">
         <v>481</v>
-      </c>
-      <c r="C202" t="s">
-        <v>482</v>
       </c>
       <c r="D202" s="11">
         <v>248981418</v>
       </c>
     </row>
-    <row r="203" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A203" s="6">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
       <c r="B203" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A204" s="6">
+        <f t="shared" si="3"/>
+        <v>201</v>
+      </c>
+      <c r="B204" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="204" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B204" t="s">
+      <c r="C204" t="s">
         <v>484</v>
-      </c>
-      <c r="C204" t="s">
-        <v>485</v>
       </c>
       <c r="D204" s="11">
         <v>243907047</v>
       </c>
     </row>
-    <row r="205" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205" s="6">
+        <f t="shared" si="3"/>
+        <v>202</v>
+      </c>
       <c r="B205" t="s">
+        <v>485</v>
+      </c>
+      <c r="C205" t="s">
         <v>486</v>
-      </c>
-      <c r="C205" t="s">
-        <v>487</v>
       </c>
       <c r="D205" s="11">
         <v>243504046</v>
       </c>
     </row>
-    <row r="206" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A206" s="6">
+        <f t="shared" si="3"/>
+        <v>203</v>
+      </c>
       <c r="B206" t="s">
+        <v>487</v>
+      </c>
+      <c r="C206" t="s">
         <v>488</v>
-      </c>
-      <c r="C206" t="s">
-        <v>489</v>
       </c>
       <c r="D206" s="11">
         <v>242971597</v>
       </c>
     </row>
-    <row r="207" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A207" s="6">
+        <f t="shared" si="3"/>
+        <v>204</v>
+      </c>
       <c r="B207" t="s">
+        <v>489</v>
+      </c>
+      <c r="C207" t="s">
         <v>490</v>
-      </c>
-      <c r="C207" t="s">
-        <v>491</v>
       </c>
       <c r="D207" s="11">
         <v>242794262</v>
       </c>
     </row>
-    <row r="208" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208" s="6">
+        <f t="shared" si="3"/>
+        <v>205</v>
+      </c>
       <c r="B208" t="s">
+        <v>491</v>
+      </c>
+      <c r="C208" t="s">
         <v>492</v>
-      </c>
-      <c r="C208" t="s">
-        <v>493</v>
       </c>
       <c r="D208" s="11">
         <v>242517376</v>
       </c>
     </row>
-    <row r="209" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A209" s="6">
+        <f t="shared" si="3"/>
+        <v>206</v>
+      </c>
       <c r="B209" t="s">
+        <v>493</v>
+      </c>
+      <c r="C209" t="s">
         <v>494</v>
-      </c>
-      <c r="C209" t="s">
-        <v>495</v>
       </c>
       <c r="D209" s="11">
         <v>240572368</v>
       </c>
     </row>
-    <row r="210" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A210" s="6">
+        <f t="shared" si="3"/>
+        <v>207</v>
+      </c>
       <c r="B210" t="s">
+        <v>495</v>
+      </c>
+      <c r="C210" t="s">
         <v>496</v>
-      </c>
-      <c r="C210" t="s">
-        <v>497</v>
       </c>
       <c r="D210" s="11">
         <v>237904880</v>
       </c>
     </row>
-    <row r="211" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A211" s="6">
+        <f t="shared" si="3"/>
+        <v>208</v>
+      </c>
       <c r="B211" t="s">
+        <v>497</v>
+      </c>
+      <c r="C211" t="s">
         <v>498</v>
-      </c>
-      <c r="C211" t="s">
-        <v>499</v>
       </c>
       <c r="D211" s="11">
         <v>237335301</v>
       </c>
     </row>
-    <row r="212" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A212" s="6">
+        <f t="shared" si="3"/>
+        <v>209</v>
+      </c>
       <c r="B212" t="s">
+        <v>499</v>
+      </c>
+      <c r="C212" t="s">
         <v>500</v>
-      </c>
-      <c r="C212" t="s">
-        <v>501</v>
       </c>
       <c r="D212" s="11">
         <v>232812165</v>
       </c>
     </row>
-    <row r="213" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A213" s="6">
+        <f t="shared" si="3"/>
+        <v>210</v>
+      </c>
       <c r="B213" t="s">
+        <v>501</v>
+      </c>
+      <c r="C213" t="s">
         <v>502</v>
-      </c>
-      <c r="C213" t="s">
-        <v>503</v>
       </c>
       <c r="D213" s="11">
         <v>232725616</v>
       </c>
     </row>
-    <row r="214" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A214" s="6">
+        <f t="shared" si="3"/>
+        <v>211</v>
+      </c>
       <c r="B214" t="s">
+        <v>503</v>
+      </c>
+      <c r="C214" t="s">
         <v>504</v>
-      </c>
-      <c r="C214" t="s">
-        <v>505</v>
       </c>
       <c r="D214" s="11">
         <v>231534837</v>
       </c>
     </row>
-    <row r="215" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A215" s="6">
+        <f t="shared" si="3"/>
+        <v>212</v>
+      </c>
       <c r="B215" t="s">
+        <v>505</v>
+      </c>
+      <c r="C215" t="s">
         <v>506</v>
-      </c>
-      <c r="C215" t="s">
-        <v>507</v>
       </c>
       <c r="D215" s="11">
         <v>228693120</v>
       </c>
     </row>
-    <row r="216" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A216" s="6">
+        <f t="shared" si="3"/>
+        <v>213</v>
+      </c>
       <c r="B216" t="s">
+        <v>507</v>
+      </c>
+      <c r="C216" t="s">
         <v>508</v>
-      </c>
-      <c r="C216" t="s">
-        <v>509</v>
       </c>
       <c r="D216" s="11">
         <v>227761200</v>
       </c>
     </row>
-    <row r="217" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A217" s="6">
+        <f t="shared" si="3"/>
+        <v>214</v>
+      </c>
       <c r="B217" t="s">
+        <v>509</v>
+      </c>
+      <c r="C217" t="s">
         <v>510</v>
-      </c>
-      <c r="C217" t="s">
-        <v>511</v>
       </c>
       <c r="D217" s="11">
         <v>227467958</v>
       </c>
     </row>
-    <row r="218" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A218" s="6">
+        <f t="shared" si="3"/>
+        <v>215</v>
+      </c>
       <c r="B218" t="s">
+        <v>511</v>
+      </c>
+      <c r="C218" t="s">
         <v>512</v>
-      </c>
-      <c r="C218" t="s">
-        <v>513</v>
       </c>
       <c r="D218" s="11">
         <v>227159584</v>
       </c>
     </row>
-    <row r="219" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A219" s="6">
+        <f t="shared" si="3"/>
+        <v>216</v>
+      </c>
       <c r="B219" t="s">
+        <v>513</v>
+      </c>
+      <c r="C219" t="s">
         <v>514</v>
-      </c>
-      <c r="C219" t="s">
-        <v>515</v>
       </c>
       <c r="D219" s="11">
         <v>225610800</v>
       </c>
     </row>
-    <row r="220" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A220" s="6">
+        <f t="shared" si="3"/>
+        <v>217</v>
+      </c>
       <c r="B220" t="s">
+        <v>515</v>
+      </c>
+      <c r="C220" t="s">
         <v>516</v>
-      </c>
-      <c r="C220" t="s">
-        <v>517</v>
       </c>
       <c r="D220" s="11">
         <v>225375808</v>
       </c>
     </row>
-    <row r="221" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A221" s="6">
+        <f t="shared" si="3"/>
+        <v>218</v>
+      </c>
       <c r="B221" t="s">
+        <v>517</v>
+      </c>
+      <c r="C221" t="s">
         <v>518</v>
-      </c>
-      <c r="C221" t="s">
-        <v>519</v>
       </c>
       <c r="D221" s="11">
         <v>219778016</v>
       </c>
     </row>
-    <row r="222" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A222" s="6">
+        <f t="shared" si="3"/>
+        <v>219</v>
+      </c>
       <c r="B222" t="s">
+        <v>519</v>
+      </c>
+      <c r="C222" t="s">
         <v>520</v>
-      </c>
-      <c r="C222" t="s">
-        <v>521</v>
       </c>
       <c r="D222" s="11">
         <v>216765136</v>
       </c>
     </row>
-    <row r="223" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A223" s="6">
+        <f t="shared" si="3"/>
+        <v>220</v>
+      </c>
       <c r="B223" t="s">
+        <v>521</v>
+      </c>
+      <c r="C223" t="s">
         <v>522</v>
-      </c>
-      <c r="C223" t="s">
-        <v>523</v>
       </c>
       <c r="D223" s="11">
         <v>214474560</v>
       </c>
     </row>
-    <row r="224" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A224" s="6">
+        <f t="shared" si="3"/>
+        <v>221</v>
+      </c>
       <c r="B224" t="s">
+        <v>523</v>
+      </c>
+      <c r="C224" t="s">
         <v>524</v>
-      </c>
-      <c r="C224" t="s">
-        <v>525</v>
       </c>
       <c r="D224" s="11">
         <v>211498966</v>
       </c>
     </row>
-    <row r="225" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A225" s="6">
+        <f t="shared" si="3"/>
+        <v>222</v>
+      </c>
       <c r="B225" t="s">
+        <v>525</v>
+      </c>
+      <c r="C225" t="s">
         <v>526</v>
-      </c>
-      <c r="C225" t="s">
-        <v>527</v>
       </c>
       <c r="D225" s="11">
         <v>202001008</v>
       </c>
     </row>
-    <row r="226" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A226" s="6">
+        <f t="shared" si="3"/>
+        <v>223</v>
+      </c>
       <c r="B226" t="s">
+        <v>527</v>
+      </c>
+      <c r="C226" t="s">
         <v>528</v>
-      </c>
-      <c r="C226" t="s">
-        <v>529</v>
       </c>
       <c r="D226" s="11">
         <v>194964591</v>
       </c>
     </row>
-    <row r="227" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A227" s="6">
+        <f t="shared" si="3"/>
+        <v>224</v>
+      </c>
       <c r="B227" t="s">
+        <v>529</v>
+      </c>
+      <c r="C227" t="s">
         <v>530</v>
-      </c>
-      <c r="C227" t="s">
-        <v>531</v>
       </c>
       <c r="D227" s="11">
         <v>194849408</v>
       </c>
     </row>
-    <row r="228" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A228" s="6">
+        <f t="shared" si="3"/>
+        <v>225</v>
+      </c>
       <c r="B228" t="s">
+        <v>531</v>
+      </c>
+      <c r="C228" t="s">
         <v>532</v>
-      </c>
-      <c r="C228" t="s">
-        <v>533</v>
       </c>
       <c r="D228" s="11">
         <v>192622040</v>
       </c>
     </row>
-    <row r="229" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A229" s="6">
+        <f t="shared" si="3"/>
+        <v>226</v>
+      </c>
       <c r="B229" t="s">
+        <v>533</v>
+      </c>
+      <c r="C229" t="s">
         <v>534</v>
-      </c>
-      <c r="C229" t="s">
-        <v>535</v>
       </c>
       <c r="D229" s="11">
         <v>187924902</v>
       </c>
     </row>
-    <row r="230" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A230" s="6">
+        <f t="shared" si="3"/>
+        <v>227</v>
+      </c>
       <c r="B230" t="s">
+        <v>535</v>
+      </c>
+      <c r="C230" t="s">
         <v>536</v>
-      </c>
-      <c r="C230" t="s">
-        <v>537</v>
       </c>
       <c r="D230" s="11">
         <v>186182144</v>
       </c>
     </row>
-    <row r="231" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A231" s="6">
+        <f t="shared" si="3"/>
+        <v>228</v>
+      </c>
       <c r="B231" t="s">
+        <v>537</v>
+      </c>
+      <c r="C231" t="s">
         <v>538</v>
-      </c>
-      <c r="C231" t="s">
-        <v>539</v>
       </c>
       <c r="D231" s="11">
         <v>185994187</v>
       </c>
     </row>
-    <row r="232" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A232" s="6">
+        <f t="shared" si="3"/>
+        <v>229</v>
+      </c>
       <c r="B232" t="s">
+        <v>539</v>
+      </c>
+      <c r="C232" t="s">
         <v>540</v>
-      </c>
-      <c r="C232" t="s">
-        <v>541</v>
       </c>
       <c r="D232" s="11">
         <v>183320454</v>
       </c>
     </row>
-    <row r="233" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A233" s="6">
+        <f t="shared" si="3"/>
+        <v>230</v>
+      </c>
       <c r="B233" t="s">
+        <v>541</v>
+      </c>
+      <c r="C233" t="s">
         <v>542</v>
-      </c>
-      <c r="C233" t="s">
-        <v>543</v>
       </c>
       <c r="D233" s="11">
         <v>178256847</v>
       </c>
     </row>
-    <row r="234" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A234" s="6">
+        <f t="shared" si="3"/>
+        <v>231</v>
+      </c>
       <c r="B234" t="s">
+        <v>543</v>
+      </c>
+      <c r="C234" t="s">
         <v>544</v>
-      </c>
-      <c r="C234" t="s">
-        <v>545</v>
       </c>
       <c r="D234" s="11">
         <v>167549614</v>
       </c>
     </row>
-    <row r="235" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A235" s="6">
+        <f t="shared" si="3"/>
+        <v>232</v>
+      </c>
       <c r="B235" t="s">
+        <v>545</v>
+      </c>
+      <c r="C235" t="s">
         <v>546</v>
-      </c>
-      <c r="C235" t="s">
-        <v>547</v>
       </c>
       <c r="D235" s="11">
         <v>156949801</v>
       </c>
     </row>
-    <row r="236" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A236" s="6">
+        <f t="shared" si="3"/>
+        <v>233</v>
+      </c>
       <c r="B236" t="s">
+        <v>547</v>
+      </c>
+      <c r="C236" t="s">
         <v>548</v>
-      </c>
-      <c r="C236" t="s">
-        <v>549</v>
       </c>
       <c r="D236" s="11">
         <v>151567616</v>
       </c>
     </row>
-    <row r="237" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A237" s="6">
+        <f t="shared" si="3"/>
+        <v>234</v>
+      </c>
       <c r="B237" t="s">
+        <v>549</v>
+      </c>
+      <c r="C237" t="s">
         <v>550</v>
-      </c>
-      <c r="C237" t="s">
-        <v>551</v>
       </c>
       <c r="D237" s="11">
         <v>149217056</v>
       </c>
     </row>
-    <row r="238" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A238" s="6">
+        <f t="shared" si="3"/>
+        <v>235</v>
+      </c>
       <c r="B238" t="s">
+        <v>551</v>
+      </c>
+      <c r="C238" t="s">
         <v>552</v>
-      </c>
-      <c r="C238" t="s">
-        <v>553</v>
       </c>
       <c r="D238" s="11">
         <v>144474278</v>
       </c>
     </row>
-    <row r="239" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A239" s="6">
+        <f t="shared" si="3"/>
+        <v>236</v>
+      </c>
       <c r="B239" t="s">
+        <v>553</v>
+      </c>
+      <c r="C239" t="s">
         <v>554</v>
-      </c>
-      <c r="C239" t="s">
-        <v>555</v>
       </c>
       <c r="D239" s="11">
         <v>135180167</v>
       </c>
     </row>
-    <row r="240" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A240" s="6">
+        <f t="shared" si="3"/>
+        <v>237</v>
+      </c>
       <c r="B240" t="s">
+        <v>555</v>
+      </c>
+      <c r="C240" t="s">
         <v>556</v>
-      </c>
-      <c r="C240" t="s">
-        <v>557</v>
       </c>
       <c r="D240" s="11">
         <v>133508648</v>
       </c>
     </row>
-    <row r="241" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A241" s="6">
+        <f t="shared" si="3"/>
+        <v>238</v>
+      </c>
       <c r="B241" t="s">
+        <v>557</v>
+      </c>
+      <c r="C241" t="s">
         <v>558</v>
-      </c>
-      <c r="C241" t="s">
-        <v>559</v>
       </c>
       <c r="D241" s="11">
         <v>133433818</v>
       </c>
     </row>
-    <row r="242" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A242" s="6">
+        <f t="shared" si="3"/>
+        <v>239</v>
+      </c>
       <c r="B242" t="s">
+        <v>559</v>
+      </c>
+      <c r="C242" t="s">
         <v>560</v>
-      </c>
-      <c r="C242" t="s">
-        <v>561</v>
       </c>
       <c r="D242" s="11">
         <v>132538736</v>
       </c>
     </row>
-    <row r="243" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A243" s="6">
+        <f t="shared" si="3"/>
+        <v>240</v>
+      </c>
       <c r="B243" t="s">
+        <v>561</v>
+      </c>
+      <c r="C243" t="s">
         <v>562</v>
-      </c>
-      <c r="C243" t="s">
-        <v>563</v>
       </c>
       <c r="D243" s="11">
         <v>130689228</v>
       </c>
     </row>
-    <row r="244" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A244" s="6">
+        <f t="shared" si="3"/>
+        <v>241</v>
+      </c>
       <c r="B244" t="s">
+        <v>563</v>
+      </c>
+      <c r="C244" t="s">
         <v>564</v>
-      </c>
-      <c r="C244" t="s">
-        <v>565</v>
       </c>
       <c r="D244" s="11">
         <v>129671592</v>
       </c>
     </row>
-    <row r="245" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A245" s="6">
+        <f t="shared" si="3"/>
+        <v>242</v>
+      </c>
       <c r="B245" t="s">
+        <v>565</v>
+      </c>
+      <c r="C245" t="s">
         <v>566</v>
-      </c>
-      <c r="C245" t="s">
-        <v>567</v>
       </c>
       <c r="D245" s="11">
         <v>129645141</v>
       </c>
     </row>
-    <row r="246" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A246" s="6">
+        <f t="shared" si="3"/>
+        <v>243</v>
+      </c>
       <c r="B246" t="s">
+        <v>567</v>
+      </c>
+      <c r="C246" t="s">
         <v>568</v>
-      </c>
-      <c r="C246" t="s">
-        <v>569</v>
       </c>
       <c r="D246" s="11">
         <v>128599095</v>
       </c>
     </row>
-    <row r="247" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A247" s="6">
+        <f t="shared" si="3"/>
+        <v>244</v>
+      </c>
       <c r="B247" t="s">
+        <v>569</v>
+      </c>
+      <c r="C247" t="s">
         <v>570</v>
-      </c>
-      <c r="C247" t="s">
-        <v>571</v>
       </c>
       <c r="D247" s="11">
         <v>125110728</v>
       </c>
     </row>
-    <row r="248" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A248" s="6">
+        <f t="shared" si="3"/>
+        <v>245</v>
+      </c>
       <c r="B248" t="s">
+        <v>571</v>
+      </c>
+      <c r="C248" t="s">
         <v>572</v>
-      </c>
-      <c r="C248" t="s">
-        <v>573</v>
       </c>
       <c r="D248" s="11">
         <v>124709690</v>
       </c>
     </row>
-    <row r="249" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A249" s="6">
+        <f t="shared" si="3"/>
+        <v>246</v>
+      </c>
       <c r="B249" t="s">
+        <v>573</v>
+      </c>
+      <c r="C249" t="s">
         <v>574</v>
-      </c>
-      <c r="C249" t="s">
-        <v>575</v>
       </c>
       <c r="D249" s="11">
         <v>121381824</v>
       </c>
     </row>
-    <row r="250" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A250" s="6">
+        <f t="shared" si="3"/>
+        <v>247</v>
+      </c>
       <c r="B250" t="s">
+        <v>575</v>
+      </c>
+      <c r="C250" t="s">
         <v>576</v>
-      </c>
-      <c r="C250" t="s">
-        <v>577</v>
       </c>
       <c r="D250" s="11">
         <v>120855152</v>
       </c>
     </row>
-    <row r="251" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A251" s="6">
+        <f t="shared" si="3"/>
+        <v>248</v>
+      </c>
       <c r="B251" t="s">
+        <v>577</v>
+      </c>
+      <c r="C251" t="s">
         <v>578</v>
-      </c>
-      <c r="C251" t="s">
-        <v>579</v>
       </c>
       <c r="D251" s="11">
         <v>119170280</v>
       </c>
     </row>
-    <row r="252" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A252" s="6">
+        <f t="shared" si="3"/>
+        <v>249</v>
+      </c>
       <c r="B252" t="s">
+        <v>579</v>
+      </c>
+      <c r="C252" t="s">
         <v>580</v>
-      </c>
-      <c r="C252" t="s">
-        <v>581</v>
       </c>
       <c r="D252" s="11">
         <v>116024520</v>
       </c>
     </row>
-    <row r="253" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A253" s="6">
+        <f t="shared" si="3"/>
+        <v>250</v>
+      </c>
       <c r="B253" t="s">
+        <v>581</v>
+      </c>
+      <c r="C253" t="s">
         <v>582</v>
-      </c>
-      <c r="C253" t="s">
-        <v>583</v>
       </c>
       <c r="D253" s="11">
         <v>115077544</v>
       </c>
     </row>
-    <row r="254" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A254" s="6">
+        <f t="shared" si="3"/>
+        <v>251</v>
+      </c>
       <c r="B254" t="s">
+        <v>583</v>
+      </c>
+      <c r="C254" t="s">
         <v>584</v>
-      </c>
-      <c r="C254" t="s">
-        <v>585</v>
       </c>
       <c r="D254" s="11">
         <v>113846292</v>
       </c>
     </row>
-    <row r="255" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A255" s="6">
+        <f t="shared" si="3"/>
+        <v>252</v>
+      </c>
       <c r="B255" t="s">
+        <v>585</v>
+      </c>
+      <c r="C255" t="s">
         <v>586</v>
-      </c>
-      <c r="C255" t="s">
-        <v>587</v>
       </c>
       <c r="D255" s="11">
         <v>107701432</v>
       </c>
     </row>
-    <row r="256" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A256" s="6">
+        <f t="shared" si="3"/>
+        <v>253</v>
+      </c>
       <c r="B256" t="s">
+        <v>587</v>
+      </c>
+      <c r="C256" t="s">
         <v>588</v>
-      </c>
-      <c r="C256" t="s">
-        <v>589</v>
       </c>
       <c r="D256" s="11">
         <v>107631130</v>
       </c>
     </row>
-    <row r="257" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A257" s="6">
+        <f t="shared" si="3"/>
+        <v>254</v>
+      </c>
       <c r="B257" t="s">
+        <v>589</v>
+      </c>
+      <c r="C257" t="s">
         <v>590</v>
-      </c>
-      <c r="C257" t="s">
-        <v>591</v>
       </c>
       <c r="D257" s="11">
         <v>106719665</v>
       </c>
     </row>
-    <row r="258" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A258" s="6">
+        <f t="shared" si="3"/>
+        <v>255</v>
+      </c>
       <c r="B258" t="s">
+        <v>591</v>
+      </c>
+      <c r="C258" t="s">
         <v>592</v>
-      </c>
-      <c r="C258" t="s">
-        <v>593</v>
       </c>
       <c r="D258" s="11">
         <v>104701384</v>
       </c>
     </row>
-    <row r="259" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A259" s="6">
+        <f t="shared" si="3"/>
+        <v>256</v>
+      </c>
       <c r="B259" t="s">
+        <v>593</v>
+      </c>
+      <c r="C259" t="s">
         <v>594</v>
-      </c>
-      <c r="C259" t="s">
-        <v>595</v>
       </c>
       <c r="D259" s="11">
         <v>102586404</v>
       </c>
     </row>
-    <row r="260" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A260" s="6">
+        <f t="shared" si="3"/>
+        <v>257</v>
+      </c>
       <c r="B260" t="s">
+        <v>595</v>
+      </c>
+      <c r="C260" t="s">
         <v>596</v>
-      </c>
-      <c r="C260" t="s">
-        <v>597</v>
       </c>
       <c r="D260" s="11">
         <v>98250251</v>
       </c>
     </row>
-    <row r="261" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A261" s="6">
+        <f t="shared" si="3"/>
+        <v>258</v>
+      </c>
       <c r="B261" t="s">
+        <v>597</v>
+      </c>
+      <c r="C261" t="s">
         <v>598</v>
-      </c>
-      <c r="C261" t="s">
-        <v>599</v>
       </c>
       <c r="D261" s="11">
         <v>97206232</v>
       </c>
     </row>
-    <row r="262" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A262" s="6">
+        <f t="shared" ref="A262:A308" si="4">1+A261</f>
+        <v>259</v>
+      </c>
       <c r="B262" t="s">
+        <v>599</v>
+      </c>
+      <c r="C262" t="s">
         <v>600</v>
-      </c>
-      <c r="C262" t="s">
-        <v>601</v>
       </c>
       <c r="D262" s="11">
         <v>90222136</v>
       </c>
     </row>
-    <row r="263" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A263" s="6">
+        <f t="shared" si="4"/>
+        <v>260</v>
+      </c>
       <c r="B263" t="s">
+        <v>601</v>
+      </c>
+      <c r="C263" t="s">
         <v>602</v>
-      </c>
-      <c r="C263" t="s">
-        <v>603</v>
       </c>
       <c r="D263" s="11">
         <v>88754032</v>
       </c>
     </row>
-    <row r="264" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A264" s="6">
+        <f t="shared" si="4"/>
+        <v>261</v>
+      </c>
       <c r="B264" t="s">
+        <v>603</v>
+      </c>
+      <c r="C264" t="s">
         <v>604</v>
-      </c>
-      <c r="C264" t="s">
-        <v>605</v>
       </c>
       <c r="D264" s="11">
         <v>81898152</v>
       </c>
     </row>
-    <row r="265" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A265" s="6">
+        <f t="shared" si="4"/>
+        <v>262</v>
+      </c>
       <c r="B265" t="s">
+        <v>605</v>
+      </c>
+      <c r="C265" t="s">
         <v>606</v>
-      </c>
-      <c r="C265" t="s">
-        <v>607</v>
       </c>
       <c r="D265" s="11">
         <v>75823832</v>
       </c>
     </row>
-    <row r="266" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A266" s="6">
+        <f t="shared" si="4"/>
+        <v>263</v>
+      </c>
       <c r="B266" t="s">
+        <v>607</v>
+      </c>
+      <c r="C266" t="s">
         <v>608</v>
-      </c>
-      <c r="C266" t="s">
-        <v>609</v>
       </c>
       <c r="D266" s="11">
         <v>71266013</v>
       </c>
     </row>
-    <row r="267" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A267" s="6">
+        <f t="shared" si="4"/>
+        <v>264</v>
+      </c>
       <c r="B267" t="s">
+        <v>609</v>
+      </c>
+      <c r="C267" t="s">
         <v>610</v>
-      </c>
-      <c r="C267" t="s">
-        <v>611</v>
       </c>
       <c r="D267" s="11">
         <v>70703024</v>
       </c>
     </row>
-    <row r="268" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A268" s="6">
+        <f t="shared" si="4"/>
+        <v>265</v>
+      </c>
       <c r="B268" t="s">
+        <v>611</v>
+      </c>
+      <c r="C268" t="s">
         <v>612</v>
-      </c>
-      <c r="C268" t="s">
-        <v>613</v>
       </c>
       <c r="D268" s="11">
         <v>70007728</v>
       </c>
     </row>
-    <row r="269" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A269" s="6">
+        <f t="shared" si="4"/>
+        <v>266</v>
+      </c>
       <c r="B269" t="s">
+        <v>613</v>
+      </c>
+      <c r="C269" t="s">
         <v>614</v>
-      </c>
-      <c r="C269" t="s">
-        <v>615</v>
       </c>
       <c r="D269" s="11">
         <v>67382016</v>
       </c>
     </row>
-    <row r="270" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A270" s="6">
+        <f t="shared" si="4"/>
+        <v>267</v>
+      </c>
       <c r="B270" t="s">
+        <v>615</v>
+      </c>
+      <c r="C270" t="s">
         <v>616</v>
-      </c>
-      <c r="C270" t="s">
-        <v>617</v>
       </c>
       <c r="D270" s="11">
         <v>66926006</v>
       </c>
     </row>
-    <row r="271" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A271" s="6">
+        <f t="shared" si="4"/>
+        <v>268</v>
+      </c>
       <c r="B271" t="s">
+        <v>617</v>
+      </c>
+      <c r="C271" t="s">
         <v>618</v>
-      </c>
-      <c r="C271" t="s">
-        <v>619</v>
       </c>
       <c r="D271" s="11">
         <v>66158509</v>
       </c>
     </row>
-    <row r="272" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A272" s="6">
+        <f t="shared" si="4"/>
+        <v>269</v>
+      </c>
       <c r="B272" t="s">
+        <v>619</v>
+      </c>
+      <c r="C272" t="s">
         <v>620</v>
-      </c>
-      <c r="C272" t="s">
-        <v>621</v>
       </c>
       <c r="D272" s="11">
         <v>65394221</v>
       </c>
     </row>
-    <row r="273" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A273" s="6">
+        <f t="shared" si="4"/>
+        <v>270</v>
+      </c>
       <c r="B273" t="s">
+        <v>621</v>
+      </c>
+      <c r="C273" t="s">
         <v>622</v>
-      </c>
-      <c r="C273" t="s">
-        <v>623</v>
       </c>
       <c r="D273" s="11">
         <v>60616004</v>
       </c>
     </row>
-    <row r="274" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A274" s="6">
+        <f t="shared" si="4"/>
+        <v>271</v>
+      </c>
       <c r="B274" t="s">
+        <v>623</v>
+      </c>
+      <c r="C274" t="s">
         <v>624</v>
-      </c>
-      <c r="C274" t="s">
-        <v>625</v>
       </c>
       <c r="D274" s="11">
         <v>57091332</v>
       </c>
     </row>
-    <row r="275" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A275" s="6">
+        <f t="shared" si="4"/>
+        <v>272</v>
+      </c>
       <c r="B275" t="s">
+        <v>625</v>
+      </c>
+      <c r="C275" t="s">
         <v>626</v>
-      </c>
-      <c r="C275" t="s">
-        <v>627</v>
       </c>
       <c r="D275" s="11">
         <v>55504929</v>
       </c>
     </row>
-    <row r="276" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A276" s="6">
+        <f t="shared" si="4"/>
+        <v>273</v>
+      </c>
       <c r="B276" t="s">
+        <v>627</v>
+      </c>
+      <c r="C276" t="s">
         <v>628</v>
-      </c>
-      <c r="C276" t="s">
-        <v>629</v>
       </c>
       <c r="D276" s="11">
         <v>54071794</v>
       </c>
     </row>
-    <row r="277" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A277" s="6">
+        <f t="shared" si="4"/>
+        <v>274</v>
+      </c>
       <c r="B277" t="s">
+        <v>629</v>
+      </c>
+      <c r="C277" t="s">
         <v>630</v>
-      </c>
-      <c r="C277" t="s">
-        <v>631</v>
       </c>
       <c r="D277" s="11">
         <v>52325200</v>
       </c>
     </row>
-    <row r="278" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A278" s="6">
+        <f t="shared" si="4"/>
+        <v>275</v>
+      </c>
       <c r="B278" t="s">
+        <v>631</v>
+      </c>
+      <c r="C278" t="s">
         <v>632</v>
-      </c>
-      <c r="C278" t="s">
-        <v>633</v>
       </c>
       <c r="D278" s="11">
         <v>50595568</v>
       </c>
     </row>
-    <row r="279" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A279" s="6">
+        <f t="shared" si="4"/>
+        <v>276</v>
+      </c>
       <c r="B279" t="s">
+        <v>633</v>
+      </c>
+      <c r="C279" t="s">
         <v>634</v>
-      </c>
-      <c r="C279" t="s">
-        <v>635</v>
       </c>
       <c r="D279" s="11">
         <v>48620928</v>
       </c>
     </row>
-    <row r="280" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A280" s="6">
+        <f t="shared" si="4"/>
+        <v>277</v>
+      </c>
       <c r="B280" t="s">
+        <v>635</v>
+      </c>
+      <c r="C280" t="s">
         <v>636</v>
-      </c>
-      <c r="C280" t="s">
-        <v>637</v>
       </c>
       <c r="D280" s="11">
         <v>46231824</v>
       </c>
     </row>
-    <row r="281" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A281" s="6">
+        <f t="shared" si="4"/>
+        <v>278</v>
+      </c>
       <c r="B281" t="s">
+        <v>637</v>
+      </c>
+      <c r="C281" t="s">
         <v>638</v>
-      </c>
-      <c r="C281" t="s">
-        <v>639</v>
       </c>
       <c r="D281" s="11">
         <v>44511338</v>
       </c>
     </row>
-    <row r="282" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A282" s="6">
+        <f t="shared" si="4"/>
+        <v>279</v>
+      </c>
       <c r="B282" t="s">
+        <v>639</v>
+      </c>
+      <c r="C282" t="s">
         <v>640</v>
-      </c>
-      <c r="C282" t="s">
-        <v>641</v>
       </c>
       <c r="D282" s="11">
         <v>37850618</v>
       </c>
     </row>
-    <row r="283" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A283" s="6">
+        <f t="shared" si="4"/>
+        <v>280</v>
+      </c>
       <c r="B283" t="s">
+        <v>641</v>
+      </c>
+      <c r="C283" t="s">
         <v>642</v>
-      </c>
-      <c r="C283" t="s">
-        <v>643</v>
       </c>
       <c r="D283" s="11">
         <v>37843452</v>
       </c>
     </row>
-    <row r="284" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A284" s="6">
+        <f t="shared" si="4"/>
+        <v>281</v>
+      </c>
       <c r="B284" t="s">
+        <v>643</v>
+      </c>
+      <c r="C284" t="s">
         <v>644</v>
-      </c>
-      <c r="C284" t="s">
-        <v>645</v>
       </c>
       <c r="D284" s="11">
         <v>21784470</v>
       </c>
     </row>
-    <row r="285" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A285" s="6">
+        <f t="shared" si="4"/>
+        <v>282</v>
+      </c>
       <c r="B285" t="s">
+        <v>645</v>
+      </c>
+      <c r="C285" t="s">
         <v>646</v>
-      </c>
-      <c r="C285" t="s">
-        <v>647</v>
       </c>
       <c r="D285" s="11">
         <v>20102876</v>
       </c>
     </row>
-    <row r="286" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A286" s="6">
+        <f t="shared" si="4"/>
+        <v>283</v>
+      </c>
       <c r="B286" t="s">
+        <v>647</v>
+      </c>
+      <c r="C286" t="s">
         <v>648</v>
-      </c>
-      <c r="C286" t="s">
-        <v>649</v>
       </c>
       <c r="D286" s="11">
         <v>17120622</v>
       </c>
     </row>
-    <row r="287" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A287" s="6">
+        <f t="shared" si="4"/>
+        <v>284</v>
+      </c>
       <c r="B287" t="s">
+        <v>649</v>
+      </c>
+      <c r="C287" t="s">
         <v>650</v>
-      </c>
-      <c r="C287" t="s">
-        <v>651</v>
       </c>
       <c r="D287" s="11">
         <v>13246417</v>
       </c>
     </row>
-    <row r="288" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A288" s="6">
+        <f t="shared" si="4"/>
+        <v>285</v>
+      </c>
       <c r="B288" t="s">
+        <v>651</v>
+      </c>
+      <c r="C288" t="s">
         <v>652</v>
-      </c>
-      <c r="C288" t="s">
-        <v>653</v>
       </c>
       <c r="D288" s="11">
         <v>12743325</v>
       </c>
     </row>
-    <row r="289" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A289" s="6">
+        <f t="shared" si="4"/>
+        <v>286</v>
+      </c>
       <c r="B289" t="s">
+        <v>653</v>
+      </c>
+      <c r="C289" t="s">
         <v>654</v>
-      </c>
-      <c r="C289" t="s">
-        <v>655</v>
       </c>
       <c r="D289" s="11">
         <v>5910458</v>
       </c>
     </row>
-    <row r="290" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A290" s="6">
+        <f t="shared" si="4"/>
+        <v>287</v>
+      </c>
       <c r="B290" t="s">
+        <v>655</v>
+      </c>
+      <c r="C290" t="s">
         <v>656</v>
-      </c>
-      <c r="C290" t="s">
-        <v>657</v>
       </c>
       <c r="D290" s="11">
         <v>5606911</v>
       </c>
     </row>
-    <row r="291" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A291" s="6">
+        <f t="shared" si="4"/>
+        <v>288</v>
+      </c>
       <c r="B291" t="s">
+        <v>657</v>
+      </c>
+      <c r="C291" t="s">
         <v>658</v>
-      </c>
-      <c r="C291" t="s">
-        <v>659</v>
       </c>
       <c r="D291" s="11">
         <v>5021721</v>
       </c>
     </row>
-    <row r="292" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A292" s="6">
+        <f t="shared" si="4"/>
+        <v>289</v>
+      </c>
       <c r="B292" t="s">
+        <v>659</v>
+      </c>
+      <c r="C292" t="s">
         <v>660</v>
-      </c>
-      <c r="C292" t="s">
-        <v>661</v>
       </c>
       <c r="D292" s="11">
         <v>3010600</v>
       </c>
     </row>
-    <row r="293" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A293" s="6">
+        <f t="shared" si="4"/>
+        <v>290</v>
+      </c>
       <c r="B293" t="s">
+        <v>661</v>
+      </c>
+      <c r="C293" t="s">
         <v>662</v>
-      </c>
-      <c r="C293" t="s">
-        <v>663</v>
       </c>
       <c r="D293" s="11">
         <v>1714280</v>
       </c>
     </row>
-    <row r="294" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A294" s="6">
+        <f t="shared" si="4"/>
+        <v>291</v>
+      </c>
       <c r="B294" t="s">
+        <v>663</v>
+      </c>
+      <c r="C294" t="s">
         <v>664</v>
-      </c>
-      <c r="C294" t="s">
-        <v>665</v>
       </c>
       <c r="D294" s="11">
         <v>775193</v>
       </c>
     </row>
-    <row r="295" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A295" s="6">
+        <f t="shared" si="4"/>
+        <v>292</v>
+      </c>
       <c r="B295" t="s">
+        <v>665</v>
+      </c>
+      <c r="C295" t="s">
         <v>666</v>
-      </c>
-      <c r="C295" t="s">
-        <v>667</v>
       </c>
       <c r="D295">
         <v>473</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A296" s="6">
+        <f t="shared" si="4"/>
+        <v>293</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A297" s="6">
+        <f t="shared" si="4"/>
+        <v>294</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A298" s="6">
+        <f t="shared" si="4"/>
+        <v>295</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A299" s="6">
+        <f t="shared" si="4"/>
+        <v>296</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A300" s="6">
+        <f t="shared" si="4"/>
+        <v>297</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A301" s="6">
+        <f t="shared" si="4"/>
+        <v>298</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A302" s="6">
+        <f t="shared" si="4"/>
+        <v>299</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A303" s="6">
+        <f t="shared" si="4"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A304" s="6">
+        <f t="shared" si="4"/>
+        <v>301</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A305" s="6">
+        <f t="shared" si="4"/>
+        <v>302</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A306" s="6">
+        <f t="shared" si="4"/>
+        <v>303</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A307" s="6">
+        <f t="shared" si="4"/>
+        <v>304</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A308" s="6">
+        <f t="shared" si="4"/>
+        <v>305</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{2BCD49C2-5CC4-4441-86F4-994A286A8BD3}"/>
+    <hyperlink ref="B7" r:id="rId1" xr:uid="{304BD59B-35C8-4ECE-8122-8B6E282ABD2D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6639,7 +7911,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
